--- a/docs/calibration_data.xlsx
+++ b/docs/calibration_data.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_hack_crack_dev\voltage_monitor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE337ED4-AA7C-4414-A6B5-AD4FAEF01609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB6CFD-EE36-48BF-A984-D7979950B8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="-120" windowWidth="26415" windowHeight="18240" xr2:uid="{38A03445-798F-4A99-A3CE-89AA8280F632}"/>
   </bookViews>
   <sheets>
     <sheet name="List2" sheetId="1" r:id="rId1"/>
+    <sheet name="polynomials" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>DIFF</t>
   </si>
@@ -137,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +176,29 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +208,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,11 +240,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -223,16 +254,24 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutrální" xfId="2" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Vstup" xfId="1" builtinId="20"/>
   </cellStyles>
@@ -405,39 +444,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.85099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2554000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0973999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9321999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3603000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7814000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2039999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.875</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -584,39 +590,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.84770000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2555000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0937999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9277000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3555000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7759</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1980000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.867</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -763,39 +736,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.84530000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6721999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0933000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5108999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9278</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3544</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7747999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.617</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8659999999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -942,39 +882,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.84940000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5144000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9312999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3597000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7801999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2039999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6230000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8730000000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1049,43 +956,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.2625710942758658E-2"/>
-                  <c:y val="0.14586896665164814"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1136,37 +1007,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2342</c:v>
+                  <c:v>4360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5244</c:v>
+                  <c:v>6624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7776</c:v>
+                  <c:v>8875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10222</c:v>
+                  <c:v>11110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12598</c:v>
+                  <c:v>13343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14921</c:v>
+                  <c:v>15558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17286</c:v>
+                  <c:v>17872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19573</c:v>
+                  <c:v>20127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21874</c:v>
+                  <c:v>22384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24144</c:v>
+                  <c:v>24624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25481</c:v>
+                  <c:v>25964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,43 +1099,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.4920604803917579E-2"/>
-                  <c:y val="0.16836090311599333"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1315,37 +1150,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2339</c:v>
+                  <c:v>4347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5230</c:v>
+                  <c:v>6609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7753</c:v>
+                  <c:v>8859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10195</c:v>
+                  <c:v>11088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12579</c:v>
+                  <c:v>13317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14893</c:v>
+                  <c:v>15534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17248</c:v>
+                  <c:v>17841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19541</c:v>
+                  <c:v>20095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21843</c:v>
+                  <c:v>22349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24122</c:v>
+                  <c:v>24583</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25451</c:v>
+                  <c:v>25920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,44 +1250,8 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.6267645896659891E-2"/>
-                  <c:y val="0.25062684603116708"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1503,37 +1302,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2313</c:v>
+                  <c:v>4356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5208</c:v>
+                  <c:v>6621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7752</c:v>
+                  <c:v>8864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10202</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12569</c:v>
+                  <c:v>13328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14885</c:v>
+                  <c:v>15541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17245</c:v>
+                  <c:v>17852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19545</c:v>
+                  <c:v>20105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21838</c:v>
+                  <c:v>22357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24115</c:v>
+                  <c:v>24594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25451</c:v>
+                  <c:v>25936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,43 +1403,7 @@
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7389036420909958E-2"/>
-                  <c:y val="0.28883620473871285"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1691,37 +1454,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2352</c:v>
+                  <c:v>4360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5247</c:v>
+                  <c:v>6624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7755</c:v>
+                  <c:v>8874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10232</c:v>
+                  <c:v>11106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12583</c:v>
+                  <c:v>13339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14914</c:v>
+                  <c:v>15553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17266</c:v>
+                  <c:v>17867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19566</c:v>
+                  <c:v>20118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21847</c:v>
+                  <c:v>22374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24151</c:v>
+                  <c:v>24611</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25482</c:v>
+                  <c:v>25952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,7 +1809,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>polynomials!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="cs-CZ"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>polynomials!$B$20:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>polynomials!$C$20:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC4E-423D-AC8D-D52FC59EB9E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1353929280"/>
+        <c:axId val="1353933440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1353929280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1353933440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1353933440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1353929280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2602,20 +2816,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2788,6 +3518,156 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C709A4-1A11-4070-A4E6-EF53AC20197C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="List1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>4360</v>
+          </cell>
+          <cell r="C20">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>6624</v>
+          </cell>
+          <cell r="C21">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>8874</v>
+          </cell>
+          <cell r="C22">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>11106</v>
+          </cell>
+          <cell r="C23">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>13339</v>
+          </cell>
+          <cell r="C24">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>15553</v>
+          </cell>
+          <cell r="C25">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>17867</v>
+          </cell>
+          <cell r="C26">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>20118</v>
+          </cell>
+          <cell r="C27">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>22374</v>
+          </cell>
+          <cell r="C28">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>24611</v>
+          </cell>
+          <cell r="C29">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>25952</v>
+          </cell>
+          <cell r="C30">
+            <v>58</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3087,14 +3967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B406F42-5FC6-453D-A7B4-92BA005BB60F}">
-  <dimension ref="B2:X65"/>
+  <dimension ref="A2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -3104,7 +3985,7 @@
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24">
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3119,7 +4000,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24">
       <c r="B3">
         <v>4</v>
       </c>
@@ -3134,7 +4015,7 @@
         <v>8.3682008368200833E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3156,7 +4037,7 @@
         <v>11.890599999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3171,7 +4052,7 @@
         <v>8.3668678739101277E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24">
       <c r="B6">
         <v>1</v>
       </c>
@@ -3192,7 +4073,7 @@
         <v>11.8842</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="M7" t="s">
         <v>22</v>
       </c>
@@ -3200,7 +4081,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="E8" t="s">
         <v>29</v>
       </c>
@@ -3209,7 +4090,7 @@
         <v>8.3696197319461998E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="E9" t="s">
         <v>28</v>
       </c>
@@ -3218,21 +4099,21 @@
         <v>11.947974125790642</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H10" s="6" t="s">
+    <row r="10" spans="2:24">
+      <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="R10" s="6" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="R10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -3285,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12">
         <v>5</v>
       </c>
@@ -3302,51 +4183,51 @@
         <v>0.41880000000000001</v>
       </c>
       <c r="H12" s="1">
-        <f>AVERAGE($C12:$F12)-C12</f>
+        <f t="shared" ref="H12:H23" si="0">AVERAGE($C12:$F12)-C12</f>
         <v>-3.9999999999995595E-4</v>
       </c>
       <c r="I12" s="1">
-        <f>AVERAGE($C12:$F12)-D12</f>
+        <f t="shared" ref="I12:I23" si="1">AVERAGE($C12:$F12)-D12</f>
         <v>-9.9999999999933475E-5</v>
       </c>
       <c r="J12" s="1">
-        <f>AVERAGE($C12:$F12)-E12</f>
+        <f t="shared" ref="J12:J23" si="2">AVERAGE($C12:$F12)-E12</f>
         <v>4.0000000000006697E-4</v>
       </c>
       <c r="K12" s="1">
-        <f>AVERAGE($C12:$F12)-F12</f>
+        <f t="shared" ref="K12:K23" si="3">AVERAGE($C12:$F12)-F12</f>
         <v>1.000000000000445E-4</v>
       </c>
       <c r="M12" s="5">
-        <f>C12*$O$6+$O$7</f>
+        <f t="shared" ref="M12:M23" si="4">C12*$O$6+$O$7</f>
         <v>5.1130450600000001</v>
       </c>
       <c r="N12" s="5">
-        <f>D12*$O$6+$O$7</f>
+        <f t="shared" ref="N12:N23" si="5">D12*$O$6+$O$7</f>
         <v>5.1094797999999999</v>
       </c>
       <c r="O12" s="5">
-        <f>E12*$O$6+$O$7</f>
+        <f t="shared" ref="O12:O23" si="6">E12*$O$6+$O$7</f>
         <v>5.1035376999999995</v>
       </c>
       <c r="P12" s="5">
-        <f>F12*$O$6+$O$7</f>
+        <f t="shared" ref="P12:P23" si="7">F12*$O$6+$O$7</f>
         <v>5.1071029599999997</v>
       </c>
       <c r="R12" s="1">
-        <f>$B12-M12</f>
+        <f t="shared" ref="R12:R23" si="8">$B12-M12</f>
         <v>-0.11304506000000014</v>
       </c>
       <c r="S12" s="1">
-        <f>$B12-N12</f>
+        <f t="shared" ref="S12:S23" si="9">$B12-N12</f>
         <v>-0.1094797999999999</v>
       </c>
       <c r="T12" s="1">
-        <f>$B12-O12</f>
+        <f t="shared" ref="T12:T23" si="10">$B12-O12</f>
         <v>-0.10353769999999951</v>
       </c>
       <c r="U12" s="1">
-        <f>$B12-P12</f>
+        <f t="shared" ref="U12:U23" si="11">$B12-P12</f>
         <v>-0.10710295999999975</v>
       </c>
       <c r="W12" t="s">
@@ -3357,7 +4238,7 @@
         <v>0.1182223599999972</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3374,51 +4255,51 @@
         <v>0.8387</v>
       </c>
       <c r="H13" s="1">
-        <f>AVERAGE($C13:$F13)-C13</f>
+        <f t="shared" si="0"/>
         <v>-7.5000000000002842E-4</v>
       </c>
       <c r="I13" s="1">
-        <f>AVERAGE($C13:$F13)-D13</f>
+        <f t="shared" si="1"/>
         <v>2.4999999999997247E-4</v>
       </c>
       <c r="J13" s="1">
-        <f>AVERAGE($C13:$F13)-E13</f>
+        <f t="shared" si="2"/>
         <v>1.1499999999999844E-3</v>
       </c>
       <c r="K13" s="1">
-        <f>AVERAGE($C13:$F13)-F13</f>
+        <f t="shared" si="3"/>
         <v>-6.5000000000003944E-4</v>
       </c>
       <c r="M13" s="5">
-        <f>C13*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>10.098466960000001</v>
       </c>
       <c r="N13" s="5">
-        <f>D13*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>10.086582760000001</v>
       </c>
       <c r="O13" s="5">
-        <f>E13*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>10.07588698</v>
       </c>
       <c r="P13" s="5">
-        <f>F13*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>10.097278540000001</v>
       </c>
       <c r="R13" s="1">
-        <f>$B13-M13</f>
+        <f t="shared" si="8"/>
         <v>-9.8466960000001436E-2</v>
       </c>
       <c r="S13" s="1">
-        <f>$B13-N13</f>
+        <f t="shared" si="9"/>
         <v>-8.6582760000000647E-2</v>
       </c>
       <c r="T13" s="1">
-        <f>$B13-O13</f>
+        <f t="shared" si="10"/>
         <v>-7.5886979999999937E-2</v>
       </c>
       <c r="U13" s="1">
-        <f>$B13-P13</f>
+        <f t="shared" si="11"/>
         <v>-9.7278540000001357E-2</v>
       </c>
       <c r="W13" t="s">
@@ -3429,7 +4310,7 @@
         <v>-0.11304506000000014</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24">
       <c r="B14">
         <v>15</v>
       </c>
@@ -3446,51 +4327,51 @@
         <v>1.2584</v>
       </c>
       <c r="H14" s="1">
-        <f>AVERAGE($C14:$F14)-C14</f>
+        <f t="shared" si="0"/>
         <v>-1.1749999999999261E-3</v>
       </c>
       <c r="I14" s="1">
-        <f>AVERAGE($C14:$F14)-D14</f>
+        <f t="shared" si="1"/>
         <v>6.2499999999987566E-4</v>
       </c>
       <c r="J14" s="1">
-        <f>AVERAGE($C14:$F14)-E14</f>
+        <f t="shared" si="2"/>
         <v>1.2250000000000316E-3</v>
       </c>
       <c r="K14" s="1">
-        <f>AVERAGE($C14:$F14)-F14</f>
+        <f t="shared" si="3"/>
         <v>-6.7499999999998117E-4</v>
       </c>
       <c r="M14" s="5">
-        <f>C14*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>15.091019379999999</v>
       </c>
       <c r="N14" s="5">
-        <f>D14*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>15.069627820000003</v>
       </c>
       <c r="O14" s="5">
-        <f>E14*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>15.0624973</v>
       </c>
       <c r="P14" s="5">
-        <f>F14*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>15.08507728</v>
       </c>
       <c r="R14" s="1">
-        <f>$B14-M14</f>
+        <f t="shared" si="8"/>
         <v>-9.1019379999998762E-2</v>
       </c>
       <c r="S14" s="1">
-        <f>$B14-N14</f>
+        <f t="shared" si="9"/>
         <v>-6.9627820000002671E-2</v>
       </c>
       <c r="T14" s="1">
-        <f>$B14-O14</f>
+        <f t="shared" si="10"/>
         <v>-6.2497300000000422E-2</v>
       </c>
       <c r="U14" s="1">
-        <f>$B14-P14</f>
+        <f t="shared" si="11"/>
         <v>-8.5077280000000144E-2</v>
       </c>
       <c r="W14" t="s">
@@ -3501,7 +4382,7 @@
         <v>0.23126741999999734</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24">
       <c r="B15">
         <v>20</v>
       </c>
@@ -3518,55 +4399,55 @@
         <v>1.6761999999999999</v>
       </c>
       <c r="H15" s="1">
-        <f>AVERAGE($C15:$F15)-C15</f>
+        <f t="shared" si="0"/>
         <v>-1.1500000000002064E-3</v>
       </c>
       <c r="I15" s="1">
-        <f>AVERAGE($C15:$F15)-D15</f>
+        <f t="shared" si="1"/>
         <v>1.3499999999999623E-3</v>
       </c>
       <c r="J15" s="1">
-        <f>AVERAGE($C15:$F15)-E15</f>
+        <f t="shared" si="2"/>
         <v>6.4999999999981739E-4</v>
       </c>
       <c r="K15" s="1">
-        <f>AVERAGE($C15:$F15)-F15</f>
+        <f t="shared" si="3"/>
         <v>-8.5000000000001741E-4</v>
       </c>
       <c r="M15" s="5">
-        <f>C15*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>20.053861300000001</v>
       </c>
       <c r="N15" s="5">
-        <f>D15*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>20.024150799999997</v>
       </c>
       <c r="O15" s="5">
-        <f>E15*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>20.03246974</v>
       </c>
       <c r="P15" s="5">
-        <f>F15*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>20.050296039999999</v>
       </c>
       <c r="R15" s="1">
-        <f>$B15-M15</f>
+        <f t="shared" si="8"/>
         <v>-5.3861300000001222E-2</v>
       </c>
       <c r="S15" s="1">
-        <f>$B15-N15</f>
+        <f t="shared" si="9"/>
         <v>-2.4150799999997474E-2</v>
       </c>
       <c r="T15" s="1">
-        <f>$B15-O15</f>
+        <f t="shared" si="10"/>
         <v>-3.2469739999999803E-2</v>
       </c>
       <c r="U15" s="1">
-        <f>$B15-P15</f>
+        <f t="shared" si="11"/>
         <v>-5.0296039999999209E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24">
       <c r="B16">
         <v>25</v>
       </c>
@@ -3583,55 +4464,55 @@
         <v>2.093</v>
       </c>
       <c r="H16" s="1">
-        <f>AVERAGE($C16:$F16)-C16</f>
+        <f t="shared" si="0"/>
         <v>-1.574999999999882E-3</v>
       </c>
       <c r="I16" s="1">
-        <f>AVERAGE($C16:$F16)-D16</f>
+        <f t="shared" si="1"/>
         <v>1.4249999999997875E-3</v>
       </c>
       <c r="J16" s="1">
-        <f>AVERAGE($C16:$F16)-E16</f>
+        <f t="shared" si="2"/>
         <v>7.2500000000008669E-4</v>
       </c>
       <c r="K16" s="1">
-        <f>AVERAGE($C16:$F16)-F16</f>
+        <f t="shared" si="3"/>
         <v>-5.7499999999999218E-4</v>
       </c>
       <c r="M16" s="5">
-        <f>C16*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>25.015514799999998</v>
       </c>
       <c r="N16" s="5">
-        <f>D16*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>24.979862199999999</v>
       </c>
       <c r="O16" s="5">
-        <f>E16*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>24.988181139999998</v>
       </c>
       <c r="P16" s="5">
-        <f>F16*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>25.003630599999997</v>
       </c>
       <c r="R16" s="1">
-        <f>$B16-M16</f>
+        <f t="shared" si="8"/>
         <v>-1.5514799999998274E-2</v>
       </c>
       <c r="S16" s="1">
-        <f>$B16-N16</f>
+        <f t="shared" si="9"/>
         <v>2.0137800000000539E-2</v>
       </c>
       <c r="T16" s="1">
-        <f>$B16-O16</f>
+        <f t="shared" si="10"/>
         <v>1.1818860000001763E-2</v>
       </c>
       <c r="U16" s="1">
-        <f>$B16-P16</f>
+        <f t="shared" si="11"/>
         <v>-3.6305999999974858E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17">
         <v>30</v>
       </c>
@@ -3648,55 +4529,55 @@
         <v>2.5125999999999999</v>
       </c>
       <c r="H17" s="1">
-        <f>AVERAGE($C17:$F17)-C17</f>
+        <f t="shared" si="0"/>
         <v>-1.7249999999999766E-3</v>
       </c>
       <c r="I17" s="1">
-        <f>AVERAGE($C17:$F17)-D17</f>
+        <f t="shared" si="1"/>
         <v>1.7750000000003041E-3</v>
       </c>
       <c r="J17" s="1">
-        <f>AVERAGE($C17:$F17)-E17</f>
+        <f t="shared" si="2"/>
         <v>7.7499999999997016E-4</v>
       </c>
       <c r="K17" s="1">
-        <f>AVERAGE($C17:$F17)-F17</f>
+        <f t="shared" si="3"/>
         <v>-8.2499999999985363E-4</v>
       </c>
       <c r="M17" s="5">
-        <f>C17*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>30.0009367</v>
       </c>
       <c r="N17" s="5">
-        <f>D17*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>29.959341999999996</v>
       </c>
       <c r="O17" s="5">
-        <f>E17*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>29.9712262</v>
       </c>
       <c r="P17" s="5">
-        <f>F17*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>29.990240919999998</v>
       </c>
       <c r="R17" s="1">
-        <f>$B17-M17</f>
+        <f t="shared" si="8"/>
         <v>-9.3670000000045661E-4</v>
       </c>
       <c r="S17" s="1">
-        <f>$B17-N17</f>
+        <f t="shared" si="9"/>
         <v>4.065800000000408E-2</v>
       </c>
       <c r="T17" s="1">
-        <f>$B17-O17</f>
+        <f t="shared" si="10"/>
         <v>2.8773799999999738E-2</v>
       </c>
       <c r="U17" s="1">
-        <f>$B17-P17</f>
+        <f t="shared" si="11"/>
         <v>9.7590800000020295E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18">
         <v>35</v>
       </c>
@@ -3713,55 +4594,55 @@
         <v>2.9274</v>
       </c>
       <c r="H18" s="1">
-        <f>AVERAGE($C18:$F18)-C18</f>
+        <f t="shared" si="0"/>
         <v>-2.1999999999997577E-3</v>
       </c>
       <c r="I18" s="1">
-        <f>AVERAGE($C18:$F18)-D18</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000002018E-3</v>
       </c>
       <c r="J18" s="1">
-        <f>AVERAGE($C18:$F18)-E18</f>
+        <f t="shared" si="2"/>
         <v>1.000000000000334E-3</v>
       </c>
       <c r="K18" s="1">
-        <f>AVERAGE($C18:$F18)-F18</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="M18" s="5">
-        <f>C18*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>34.934068119999999</v>
       </c>
       <c r="N18" s="5">
-        <f>D18*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>34.881777640000003</v>
       </c>
       <c r="O18" s="5">
-        <f>E18*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>34.896038679999997</v>
       </c>
       <c r="P18" s="5">
-        <f>F18*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>34.919807080000005</v>
       </c>
       <c r="R18" s="1">
-        <f>$B18-M18</f>
+        <f t="shared" si="8"/>
         <v>6.5931880000000831E-2</v>
       </c>
       <c r="S18" s="1">
-        <f>$B18-N18</f>
+        <f t="shared" si="9"/>
         <v>0.1182223599999972</v>
       </c>
       <c r="T18" s="1">
-        <f>$B18-O18</f>
+        <f t="shared" si="10"/>
         <v>0.10396132000000335</v>
       </c>
       <c r="U18" s="1">
-        <f>$B18-P18</f>
+        <f t="shared" si="11"/>
         <v>8.0192919999994672E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24">
       <c r="B19">
         <v>40</v>
       </c>
@@ -3778,55 +4659,55 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="H19" s="1">
-        <f>AVERAGE($C19:$F19)-C19</f>
+        <f t="shared" si="0"/>
         <v>-2.3000000000004128E-3</v>
       </c>
       <c r="I19" s="1">
-        <f>AVERAGE($C19:$F19)-D19</f>
+        <f t="shared" si="1"/>
         <v>2.4999999999995026E-3</v>
       </c>
       <c r="J19" s="1">
-        <f>AVERAGE($C19:$F19)-E19</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999996568E-3</v>
       </c>
       <c r="K19" s="1">
-        <f>AVERAGE($C19:$F19)-F19</f>
+        <f t="shared" si="3"/>
         <v>-1.300000000000523E-3</v>
       </c>
       <c r="M19" s="5">
-        <f>C19*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>40.001491000000001</v>
       </c>
       <c r="N19" s="5">
-        <f>D19*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>39.944446840000005</v>
       </c>
       <c r="O19" s="5">
-        <f>E19*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>39.961084720000002</v>
       </c>
       <c r="P19" s="5">
-        <f>F19*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>39.989606800000004</v>
       </c>
       <c r="R19" s="1">
-        <f>$B19-M19</f>
+        <f t="shared" si="8"/>
         <v>-1.4910000000014634E-3</v>
       </c>
       <c r="S19" s="1">
-        <f>$B19-N19</f>
+        <f t="shared" si="9"/>
         <v>5.5553159999995216E-2</v>
       </c>
       <c r="T19" s="1">
-        <f>$B19-O19</f>
+        <f t="shared" si="10"/>
         <v>3.8915279999997665E-2</v>
       </c>
       <c r="U19" s="1">
-        <f>$B19-P19</f>
+        <f t="shared" si="11"/>
         <v>1.0393199999995772E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24">
       <c r="B20">
         <v>45</v>
       </c>
@@ -3843,55 +4724,55 @@
         <v>3.7801999999999998</v>
       </c>
       <c r="H20" s="1">
-        <f>AVERAGE($C20:$F20)-C20</f>
+        <f t="shared" si="0"/>
         <v>-2.8000000000001357E-3</v>
       </c>
       <c r="I20" s="1">
-        <f>AVERAGE($C20:$F20)-D20</f>
+        <f t="shared" si="1"/>
         <v>3.1999999999996476E-3</v>
       </c>
       <c r="J20" s="1">
-        <f>AVERAGE($C20:$F20)-E20</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999996568E-3</v>
       </c>
       <c r="K20" s="1">
-        <f>AVERAGE($C20:$F20)-F20</f>
+        <f t="shared" si="3"/>
         <v>-1.5000000000000568E-3</v>
       </c>
       <c r="M20" s="5">
-        <f>C20*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>45.070102300000002</v>
       </c>
       <c r="N20" s="5">
-        <f>D20*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>44.998797100000004</v>
       </c>
       <c r="O20" s="5">
-        <f>E20*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>45.023753920000004</v>
       </c>
       <c r="P20" s="5">
-        <f>F20*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>45.054652840000003</v>
       </c>
       <c r="R20" s="1">
-        <f>$B20-M20</f>
+        <f t="shared" si="8"/>
         <v>-7.010230000000206E-2</v>
       </c>
       <c r="S20" s="1">
-        <f>$B20-N20</f>
+        <f t="shared" si="9"/>
         <v>1.2028999999955658E-3</v>
       </c>
       <c r="T20" s="1">
-        <f>$B20-O20</f>
+        <f t="shared" si="10"/>
         <v>-2.3753920000004314E-2</v>
       </c>
       <c r="U20" s="1">
-        <f>$B20-P20</f>
+        <f t="shared" si="11"/>
         <v>-5.4652840000002811E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24">
       <c r="B21">
         <v>50</v>
       </c>
@@ -3908,55 +4789,55 @@
         <v>4.2050000000000001</v>
       </c>
       <c r="H21" s="1">
-        <f>AVERAGE($C21:$F21)-C21</f>
+        <f t="shared" si="0"/>
         <v>-2.7500000000006963E-3</v>
       </c>
       <c r="I21" s="1">
-        <f>AVERAGE($C21:$F21)-D21</f>
+        <f t="shared" si="1"/>
         <v>3.249999999999531E-3</v>
       </c>
       <c r="J21" s="1">
-        <f>AVERAGE($C21:$F21)-E21</f>
+        <f t="shared" si="2"/>
         <v>2.2499999999991971E-3</v>
       </c>
       <c r="K21" s="1">
-        <f>AVERAGE($C21:$F21)-F21</f>
+        <f t="shared" si="3"/>
         <v>-2.7500000000006963E-3</v>
       </c>
       <c r="M21" s="5">
-        <f>C21*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>50.103061000000004</v>
       </c>
       <c r="N21" s="5">
-        <f>D21*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>50.031755799999999</v>
       </c>
       <c r="O21" s="5">
-        <f>E21*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>50.043640000000003</v>
       </c>
       <c r="P21" s="5">
-        <f>F21*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>50.103061000000004</v>
       </c>
       <c r="R21" s="1">
-        <f>$B21-M21</f>
+        <f t="shared" si="8"/>
         <v>-0.10306100000000384</v>
       </c>
       <c r="S21" s="1">
-        <f>$B21-N21</f>
+        <f t="shared" si="9"/>
         <v>-3.1755799999999113E-2</v>
       </c>
       <c r="T21" s="1">
-        <f>$B21-O21</f>
+        <f t="shared" si="10"/>
         <v>-4.3640000000003454E-2</v>
       </c>
       <c r="U21" s="1">
-        <f>$B21-P21</f>
+        <f t="shared" si="11"/>
         <v>-0.10306100000000384</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24">
       <c r="B22">
         <v>55</v>
       </c>
@@ -3973,55 +4854,55 @@
         <v>4.62</v>
       </c>
       <c r="H22" s="1">
-        <f>AVERAGE($C22:$F22)-C22</f>
+        <f t="shared" si="0"/>
         <v>-2.2500000000000853E-3</v>
       </c>
       <c r="I22" s="1">
-        <f>AVERAGE($C22:$F22)-D22</f>
+        <f t="shared" si="1"/>
         <v>2.7499999999998082E-3</v>
       </c>
       <c r="J22" s="1">
-        <f>AVERAGE($C22:$F22)-E22</f>
+        <f t="shared" si="2"/>
         <v>1.7500000000003624E-3</v>
       </c>
       <c r="K22" s="1">
-        <f>AVERAGE($C22:$F22)-F22</f>
+        <f t="shared" si="3"/>
         <v>-2.2500000000000853E-3</v>
       </c>
       <c r="M22" s="5">
-        <f>C22*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>55.035004000000001</v>
       </c>
       <c r="N22" s="5">
-        <f>D22*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>54.975583000000007</v>
       </c>
       <c r="O22" s="5">
-        <f>E22*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>54.987467199999998</v>
       </c>
       <c r="P22" s="5">
-        <f>F22*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>55.035004000000001</v>
       </c>
       <c r="R22" s="1">
-        <f>$B22-M22</f>
+        <f t="shared" si="8"/>
         <v>-3.5004000000000701E-2</v>
       </c>
       <c r="S22" s="1">
-        <f>$B22-N22</f>
+        <f t="shared" si="9"/>
         <v>2.4416999999992584E-2</v>
       </c>
       <c r="T22" s="1">
-        <f>$B22-O22</f>
+        <f t="shared" si="10"/>
         <v>1.2532800000002453E-2</v>
       </c>
       <c r="U22" s="1">
-        <f>$B22-P22</f>
+        <f t="shared" si="11"/>
         <v>-3.5004000000000701E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24">
       <c r="B23">
         <v>58</v>
       </c>
@@ -4038,76 +4919,76 @@
         <v>4.8760000000000003</v>
       </c>
       <c r="H23" s="1">
-        <f>AVERAGE($C23:$F23)-C23</f>
+        <f t="shared" si="0"/>
         <v>-3.9999999999995595E-3</v>
       </c>
       <c r="I23" s="1">
-        <f>AVERAGE($C23:$F23)-D23</f>
+        <f t="shared" si="1"/>
         <v>4.9999999999998934E-3</v>
       </c>
       <c r="J23" s="1">
-        <f>AVERAGE($C23:$F23)-E23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <f>AVERAGE($C23:$F23)-F23</f>
+        <f t="shared" si="3"/>
         <v>-1.000000000000334E-3</v>
       </c>
       <c r="M23" s="5">
-        <f>C23*$O$6+$O$7</f>
+        <f t="shared" si="4"/>
         <v>58.113011799999995</v>
       </c>
       <c r="N23" s="5">
-        <f>D23*$O$6+$O$7</f>
+        <f t="shared" si="5"/>
         <v>58.006054000000006</v>
       </c>
       <c r="O23" s="5">
-        <f>E23*$O$6+$O$7</f>
+        <f t="shared" si="6"/>
         <v>58.065474999999999</v>
       </c>
       <c r="P23" s="5">
-        <f>F23*$O$6+$O$7</f>
+        <f t="shared" si="7"/>
         <v>58.077359200000004</v>
       </c>
       <c r="R23" s="1">
-        <f>$B23-M23</f>
+        <f t="shared" si="8"/>
         <v>-0.11301179999999533</v>
       </c>
       <c r="S23" s="1">
-        <f>$B23-N23</f>
+        <f t="shared" si="9"/>
         <v>-6.054000000005999E-3</v>
       </c>
       <c r="T23" s="1">
-        <f>$B23-O23</f>
+        <f t="shared" si="10"/>
         <v>-6.5474999999999284E-2</v>
       </c>
       <c r="U23" s="1">
-        <f>$B23-P23</f>
+        <f t="shared" si="11"/>
         <v>-7.7359200000003625E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:24" ht="18.75">
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="C26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="M26" t="s">
         <v>23</v>
       </c>
@@ -4120,14 +5001,14 @@
       <c r="P26" s="2">
         <v>-0.03</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -4180,711 +5061,579 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24">
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0.84770000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.84530000000000005</v>
-      </c>
-      <c r="F28">
-        <v>0.84940000000000004</v>
-      </c>
       <c r="G28">
-        <v>2342</v>
+        <v>4360</v>
       </c>
       <c r="H28">
-        <v>2339</v>
+        <v>4347</v>
       </c>
       <c r="I28">
-        <v>2313</v>
+        <v>4356</v>
       </c>
       <c r="J28">
-        <v>2352</v>
+        <v>4360</v>
       </c>
       <c r="M28" s="5">
-        <f>C28*$N$26+$P$26</f>
-        <v>10.1174091</v>
+        <f t="shared" ref="M28:M38" si="12">C28*$N$26+$P$26</f>
+        <v>-0.03</v>
       </c>
       <c r="N28" s="5">
-        <f>D28*$N$26+$P$26</f>
-        <v>10.078059570000001</v>
+        <f t="shared" ref="N28:N38" si="13">D28*$N$26+$P$26</f>
+        <v>-0.03</v>
       </c>
       <c r="O28" s="5">
-        <f>E28*$N$26+$P$26</f>
-        <v>10.04944173</v>
+        <f t="shared" ref="O28:O38" si="14">E28*$N$26+$P$26</f>
+        <v>-0.03</v>
       </c>
       <c r="P28" s="5">
-        <f>F28*$N$26+$P$26</f>
-        <v>10.098330540000001</v>
+        <f t="shared" ref="P28:P38" si="15">F28*$N$26+$P$26</f>
+        <v>-0.03</v>
       </c>
       <c r="R28" s="1">
-        <f>$B28-M28</f>
-        <v>-0.11740909999999971</v>
+        <f t="shared" ref="R28:R38" si="16">$B28-M28</f>
+        <v>10.029999999999999</v>
       </c>
       <c r="S28" s="1">
-        <f>$B28-N28</f>
-        <v>-7.8059570000000633E-2</v>
+        <f t="shared" ref="S28:S38" si="17">$B28-N28</f>
+        <v>10.029999999999999</v>
       </c>
       <c r="T28" s="1">
-        <f>$B28-O28</f>
-        <v>-4.9441729999999851E-2</v>
+        <f t="shared" ref="T28:T38" si="18">$B28-O28</f>
+        <v>10.029999999999999</v>
       </c>
       <c r="U28" s="1">
-        <f>$B28-P28</f>
-        <v>-9.8330540000000966E-2</v>
+        <f t="shared" ref="U28:U38" si="19">$B28-P28</f>
+        <v>10.029999999999999</v>
       </c>
       <c r="W28" t="s">
         <v>3</v>
       </c>
       <c r="X28" s="1">
         <f>MAX(R28:U38)</f>
-        <v>0.11981243000000319</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>1.2554000000000001</v>
-      </c>
-      <c r="D29">
-        <v>1.2555000000000001</v>
-      </c>
-      <c r="E29">
-        <v>1.254</v>
-      </c>
-      <c r="F29">
-        <v>1.2581</v>
-      </c>
       <c r="G29">
-        <v>5244</v>
+        <v>6624</v>
       </c>
       <c r="H29">
-        <v>5230</v>
+        <v>6609</v>
       </c>
       <c r="I29">
-        <v>5208</v>
+        <v>6621</v>
       </c>
       <c r="J29">
-        <v>5247</v>
+        <v>6624</v>
       </c>
       <c r="M29" s="5">
-        <f>C29*$N$26+$P$26</f>
-        <v>14.939515140000001</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N29" s="5">
-        <f>D29*$N$26+$P$26</f>
-        <v>14.940707550000001</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O29" s="5">
-        <f>E29*$N$26+$P$26</f>
-        <v>14.9228214</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P29" s="5">
-        <f>F29*$N$26+$P$26</f>
-        <v>14.971710209999999</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R29" s="1">
-        <f>$B29-M29</f>
-        <v>6.0484859999998974E-2</v>
+        <f t="shared" si="16"/>
+        <v>15.03</v>
       </c>
       <c r="S29" s="1">
-        <f>$B29-N29</f>
-        <v>5.9292449999999164E-2</v>
+        <f t="shared" si="17"/>
+        <v>15.03</v>
       </c>
       <c r="T29" s="1">
-        <f>$B29-O29</f>
-        <v>7.7178599999999875E-2</v>
+        <f t="shared" si="18"/>
+        <v>15.03</v>
       </c>
       <c r="U29" s="1">
-        <f>$B29-P29</f>
-        <v>2.8289790000000536E-2</v>
+        <f t="shared" si="19"/>
+        <v>15.03</v>
       </c>
       <c r="W29" t="s">
         <v>2</v>
       </c>
       <c r="X29" s="1">
         <f>MIN(R28:U38)</f>
-        <v>-0.11896249999999498</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30">
         <v>20</v>
       </c>
-      <c r="C30">
-        <v>1.6751</v>
-      </c>
-      <c r="D30">
-        <v>1.6732</v>
-      </c>
-      <c r="E30">
-        <v>1.6721999999999999</v>
-      </c>
-      <c r="F30">
-        <v>1.6757</v>
-      </c>
       <c r="G30">
-        <v>7776</v>
+        <v>8875</v>
       </c>
       <c r="H30">
-        <v>7753</v>
+        <v>8859</v>
       </c>
       <c r="I30">
-        <v>7752</v>
+        <v>8864</v>
       </c>
       <c r="J30">
-        <v>7755</v>
+        <v>8874</v>
       </c>
       <c r="M30" s="5">
-        <f>C30*$N$26+$P$26</f>
-        <v>19.944059909999996</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N30" s="5">
-        <f>D30*$N$26+$P$26</f>
-        <v>19.921404119999998</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O30" s="5">
-        <f>E30*$N$26+$P$26</f>
-        <v>19.909480019999997</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P30" s="5">
-        <f>F30*$N$26+$P$26</f>
-        <v>19.951214369999999</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R30" s="1">
-        <f>$B30-M30</f>
-        <v>5.5940090000003551E-2</v>
+        <f t="shared" si="16"/>
+        <v>20.03</v>
       </c>
       <c r="S30" s="1">
-        <f>$B30-N30</f>
-        <v>7.8595880000001728E-2</v>
+        <f t="shared" si="17"/>
+        <v>20.03</v>
       </c>
       <c r="T30" s="1">
-        <f>$B30-O30</f>
-        <v>9.0519980000003386E-2</v>
+        <f t="shared" si="18"/>
+        <v>20.03</v>
       </c>
       <c r="U30" s="1">
-        <f>$B30-P30</f>
-        <v>4.8785630000001134E-2</v>
+        <f t="shared" si="19"/>
+        <v>20.03</v>
       </c>
       <c r="W30" t="s">
         <v>0</v>
       </c>
       <c r="X30" s="1">
         <f>X28-X29</f>
-        <v>0.23877492999999816</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31">
         <v>25</v>
       </c>
-      <c r="C31">
-        <v>2.0973999999999999</v>
-      </c>
-      <c r="D31">
-        <v>2.0937999999999999</v>
-      </c>
-      <c r="E31">
-        <v>2.0933000000000002</v>
-      </c>
-      <c r="F31">
-        <v>2.0966</v>
-      </c>
       <c r="G31">
-        <v>10222</v>
+        <v>11110</v>
       </c>
       <c r="H31">
-        <v>10195</v>
+        <v>11088</v>
       </c>
       <c r="I31">
-        <v>10202</v>
+        <v>11100</v>
       </c>
       <c r="J31">
-        <v>10232</v>
+        <v>11106</v>
       </c>
       <c r="M31" s="5">
-        <f>C31*$N$26+$P$26</f>
-        <v>24.979607339999998</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N31" s="5">
-        <f>D31*$N$26+$P$26</f>
-        <v>24.936680579999997</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O31" s="5">
-        <f>E31*$N$26+$P$26</f>
-        <v>24.93071853</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P31" s="5">
-        <f>F31*$N$26+$P$26</f>
-        <v>24.970068059999999</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R31" s="1">
-        <f>$B31-M31</f>
-        <v>2.0392660000002394E-2</v>
+        <f t="shared" si="16"/>
+        <v>25.03</v>
       </c>
       <c r="S31" s="1">
-        <f>$B31-N31</f>
-        <v>6.331942000000268E-2</v>
+        <f t="shared" si="17"/>
+        <v>25.03</v>
       </c>
       <c r="T31" s="1">
-        <f>$B31-O31</f>
-        <v>6.9281469999999956E-2</v>
+        <f t="shared" si="18"/>
+        <v>25.03</v>
       </c>
       <c r="U31" s="1">
-        <f>$B31-P31</f>
-        <v>2.9931940000000878E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="D32">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="E32">
-        <v>2.5108999999999999</v>
-      </c>
-      <c r="F32">
-        <v>2.5144000000000002</v>
-      </c>
       <c r="G32">
-        <v>12598</v>
+        <v>13343</v>
       </c>
       <c r="H32">
-        <v>12579</v>
+        <v>13317</v>
       </c>
       <c r="I32">
-        <v>12569</v>
+        <v>13328</v>
       </c>
       <c r="J32">
-        <v>12583</v>
+        <v>13339</v>
       </c>
       <c r="M32" s="5">
-        <f>C32*$N$26+$P$26</f>
-        <v>29.959111499999999</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N32" s="5">
-        <f>D32*$N$26+$P$26</f>
-        <v>29.911415099999999</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O32" s="5">
-        <f>E32*$N$26+$P$26</f>
-        <v>29.910222689999998</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P32" s="5">
-        <f>F32*$N$26+$P$26</f>
-        <v>29.95195704</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R32" s="1">
-        <f>$B32-M32</f>
-        <v>4.0888500000001216E-2</v>
+        <f t="shared" si="16"/>
+        <v>30.03</v>
       </c>
       <c r="S32" s="1">
-        <f>$B32-N32</f>
-        <v>8.8584900000000744E-2</v>
+        <f t="shared" si="17"/>
+        <v>30.03</v>
       </c>
       <c r="T32" s="1">
-        <f>$B32-O32</f>
-        <v>8.9777310000002331E-2</v>
+        <f t="shared" si="18"/>
+        <v>30.03</v>
       </c>
       <c r="U32" s="1">
-        <f>$B32-P32</f>
-        <v>4.8042960000000079E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33">
         <v>35</v>
       </c>
-      <c r="C33">
-        <v>2.9321999999999999</v>
-      </c>
-      <c r="D33">
-        <v>2.9277000000000002</v>
-      </c>
-      <c r="E33">
-        <v>2.9278</v>
-      </c>
-      <c r="F33">
-        <v>2.9312999999999998</v>
-      </c>
       <c r="G33">
-        <v>14921</v>
+        <v>15558</v>
       </c>
       <c r="H33">
-        <v>14893</v>
+        <v>15534</v>
       </c>
       <c r="I33">
-        <v>14885</v>
+        <v>15541</v>
       </c>
       <c r="J33">
-        <v>14914</v>
+        <v>15553</v>
       </c>
       <c r="M33" s="5">
-        <f>C33*$N$26+$P$26</f>
-        <v>34.933846019999997</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N33" s="5">
-        <f>D33*$N$26+$P$26</f>
-        <v>34.880187569999997</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O33" s="5">
-        <f>E33*$N$26+$P$26</f>
-        <v>34.881379979999998</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P33" s="5">
-        <f>F33*$N$26+$P$26</f>
-        <v>34.923114329999997</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R33" s="1">
-        <f>$B33-M33</f>
-        <v>6.6153980000002832E-2</v>
+        <f t="shared" si="16"/>
+        <v>35.03</v>
       </c>
       <c r="S33" s="1">
-        <f>$B33-N33</f>
-        <v>0.11981243000000319</v>
+        <f t="shared" si="17"/>
+        <v>35.03</v>
       </c>
       <c r="T33" s="1">
-        <f>$B33-O33</f>
-        <v>0.1186200200000016</v>
+        <f t="shared" si="18"/>
+        <v>35.03</v>
       </c>
       <c r="U33" s="1">
-        <f>$B33-P33</f>
-        <v>7.6885670000002904E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>3.3603000000000001</v>
-      </c>
-      <c r="D34">
-        <v>3.3555000000000001</v>
-      </c>
-      <c r="E34">
-        <v>3.3544</v>
-      </c>
-      <c r="F34">
-        <v>3.3597000000000001</v>
-      </c>
       <c r="G34">
-        <v>17286</v>
+        <v>17872</v>
       </c>
       <c r="H34">
-        <v>17248</v>
+        <v>17841</v>
       </c>
       <c r="I34">
-        <v>17245</v>
+        <v>17852</v>
       </c>
       <c r="J34">
-        <v>17266</v>
+        <v>17867</v>
       </c>
       <c r="M34" s="5">
-        <f>C34*$N$26+$P$26</f>
-        <v>40.038553229999998</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N34" s="5">
-        <f>D34*$N$26+$P$26</f>
-        <v>39.98131755</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O34" s="5">
-        <f>E34*$N$26+$P$26</f>
-        <v>39.968201039999997</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P34" s="5">
-        <f>F34*$N$26+$P$26</f>
-        <v>40.031398769999996</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R34" s="1">
-        <f>$B34-M34</f>
-        <v>-3.8553229999997995E-2</v>
+        <f t="shared" si="16"/>
+        <v>40.03</v>
       </c>
       <c r="S34" s="1">
-        <f>$B34-N34</f>
-        <v>1.8682450000000017E-2</v>
+        <f t="shared" si="17"/>
+        <v>40.03</v>
       </c>
       <c r="T34" s="1">
-        <f>$B34-O34</f>
-        <v>3.1798960000003262E-2</v>
+        <f t="shared" si="18"/>
+        <v>40.03</v>
       </c>
       <c r="U34" s="1">
-        <f>$B34-P34</f>
-        <v>-3.1398769999995579E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35">
         <v>45</v>
       </c>
-      <c r="C35">
-        <v>3.7814000000000001</v>
-      </c>
-      <c r="D35">
-        <v>3.7759</v>
-      </c>
-      <c r="E35">
-        <v>3.7747999999999999</v>
-      </c>
-      <c r="F35">
-        <v>3.7801999999999998</v>
-      </c>
       <c r="G35">
-        <v>19573</v>
+        <v>20127</v>
       </c>
       <c r="H35">
-        <v>19541</v>
+        <v>20095</v>
       </c>
       <c r="I35">
-        <v>19545</v>
+        <v>20105</v>
       </c>
       <c r="J35">
-        <v>19566</v>
+        <v>20118</v>
       </c>
       <c r="M35" s="5">
-        <f>C35*$N$26+$P$26</f>
-        <v>45.059791739999994</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N35" s="5">
-        <f>D35*$N$26+$P$26</f>
-        <v>44.994209189999999</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O35" s="5">
-        <f>E35*$N$26+$P$26</f>
-        <v>44.981092679999996</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P35" s="5">
-        <f>F35*$N$26+$P$26</f>
-        <v>45.045482819999997</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R35" s="1">
-        <f>$B35-M35</f>
-        <v>-5.979173999999432E-2</v>
+        <f t="shared" si="16"/>
+        <v>45.03</v>
       </c>
       <c r="S35" s="1">
-        <f>$B35-N35</f>
-        <v>5.7908100000005902E-3</v>
+        <f t="shared" si="17"/>
+        <v>45.03</v>
       </c>
       <c r="T35" s="1">
-        <f>$B35-O35</f>
-        <v>1.8907320000003836E-2</v>
+        <f t="shared" si="18"/>
+        <v>45.03</v>
       </c>
       <c r="U35" s="1">
-        <f>$B35-P35</f>
-        <v>-4.5482819999996593E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>45.03</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36">
         <v>50</v>
       </c>
-      <c r="C36">
-        <v>4.2039999999999997</v>
-      </c>
-      <c r="D36">
-        <v>4.1980000000000004</v>
-      </c>
-      <c r="E36">
-        <v>4.1970000000000001</v>
-      </c>
-      <c r="F36">
-        <v>4.2039999999999997</v>
-      </c>
       <c r="G36">
-        <v>21874</v>
+        <v>22384</v>
       </c>
       <c r="H36">
-        <v>21843</v>
+        <v>22349</v>
       </c>
       <c r="I36">
-        <v>21838</v>
+        <v>22357</v>
       </c>
       <c r="J36">
-        <v>21847</v>
+        <v>22374</v>
       </c>
       <c r="M36" s="5">
-        <f>C36*$N$26+$P$26</f>
-        <v>50.098916399999993</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N36" s="5">
-        <f>D36*$N$26+$P$26</f>
-        <v>50.027371799999997</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O36" s="5">
-        <f>E36*$N$26+$P$26</f>
-        <v>50.015447699999996</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P36" s="5">
-        <f>F36*$N$26+$P$26</f>
-        <v>50.098916399999993</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R36" s="1">
-        <f>$B36-M36</f>
-        <v>-9.8916399999993132E-2</v>
+        <f t="shared" si="16"/>
+        <v>50.03</v>
       </c>
       <c r="S36" s="1">
-        <f>$B36-N36</f>
-        <v>-2.7371799999997393E-2</v>
+        <f t="shared" si="17"/>
+        <v>50.03</v>
       </c>
       <c r="T36" s="1">
-        <f>$B36-O36</f>
-        <v>-1.5447699999995734E-2</v>
+        <f t="shared" si="18"/>
+        <v>50.03</v>
       </c>
       <c r="U36" s="1">
-        <f>$B36-P36</f>
-        <v>-9.8916399999993132E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>50.03</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37">
         <v>55</v>
       </c>
-      <c r="C37">
-        <v>4.625</v>
-      </c>
-      <c r="D37">
-        <v>4.62</v>
-      </c>
-      <c r="E37">
-        <v>4.617</v>
-      </c>
-      <c r="F37">
-        <v>4.6230000000000002</v>
-      </c>
       <c r="G37">
-        <v>24144</v>
+        <v>24624</v>
       </c>
       <c r="H37">
-        <v>24122</v>
+        <v>24583</v>
       </c>
       <c r="I37">
-        <v>24115</v>
+        <v>24594</v>
       </c>
       <c r="J37">
-        <v>24151</v>
+        <v>24611</v>
       </c>
       <c r="M37" s="5">
-        <f>C37*$N$26+$P$26</f>
-        <v>55.118962499999995</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N37" s="5">
-        <f>D37*$N$26+$P$26</f>
-        <v>55.059341999999994</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O37" s="5">
-        <f>E37*$N$26+$P$26</f>
-        <v>55.023569699999996</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P37" s="5">
-        <f>F37*$N$26+$P$26</f>
-        <v>55.095114299999999</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R37" s="1">
-        <f>$B37-M37</f>
-        <v>-0.11896249999999498</v>
+        <f t="shared" si="16"/>
+        <v>55.03</v>
       </c>
       <c r="S37" s="1">
-        <f>$B37-N37</f>
-        <v>-5.9341999999993789E-2</v>
+        <f t="shared" si="17"/>
+        <v>55.03</v>
       </c>
       <c r="T37" s="1">
-        <f>$B37-O37</f>
-        <v>-2.3569699999995919E-2</v>
+        <f t="shared" si="18"/>
+        <v>55.03</v>
       </c>
       <c r="U37" s="1">
-        <f>$B37-P37</f>
-        <v>-9.5114299999998764E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>55.03</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38">
         <v>58</v>
       </c>
-      <c r="C38">
-        <v>4.875</v>
-      </c>
-      <c r="D38">
-        <v>4.867</v>
-      </c>
-      <c r="E38">
-        <v>4.8659999999999997</v>
-      </c>
-      <c r="F38">
-        <v>4.8730000000000002</v>
-      </c>
       <c r="G38">
-        <v>25481</v>
+        <v>25964</v>
       </c>
       <c r="H38">
-        <v>25451</v>
+        <v>25920</v>
       </c>
       <c r="I38">
-        <v>25451</v>
+        <v>25936</v>
       </c>
       <c r="J38">
-        <v>25482</v>
+        <v>25952</v>
       </c>
       <c r="M38" s="5">
-        <f>C38*$N$26+$P$26</f>
-        <v>58.099987499999997</v>
+        <f t="shared" si="12"/>
+        <v>-0.03</v>
       </c>
       <c r="N38" s="5">
-        <f>D38*$N$26+$P$26</f>
-        <v>58.004594699999998</v>
+        <f t="shared" si="13"/>
+        <v>-0.03</v>
       </c>
       <c r="O38" s="5">
-        <f>E38*$N$26+$P$26</f>
-        <v>57.99267059999999</v>
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
       </c>
       <c r="P38" s="5">
-        <f>F38*$N$26+$P$26</f>
-        <v>58.076139300000001</v>
+        <f t="shared" si="15"/>
+        <v>-0.03</v>
       </c>
       <c r="R38" s="1">
-        <f>$B38-M38</f>
-        <v>-9.9987499999997453E-2</v>
+        <f t="shared" si="16"/>
+        <v>58.03</v>
       </c>
       <c r="S38" s="1">
-        <f>$B38-N38</f>
-        <v>-4.5946999999983973E-3</v>
+        <f t="shared" si="17"/>
+        <v>58.03</v>
       </c>
       <c r="T38" s="1">
-        <f>$B38-O38</f>
-        <v>7.3294000000103665E-3</v>
+        <f t="shared" si="18"/>
+        <v>58.03</v>
       </c>
       <c r="U38" s="1">
-        <f>$B38-P38</f>
-        <v>-7.6139300000001242E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="R39" s="6" t="s">
+      <c r="R39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
@@ -4925,57 +5674,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24">
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" s="5">
-        <f>(8.7825*(10^-9)*G28^2)+(1.8487*(10^-3)*G28)+5.3102</f>
-        <v>9.6880270963299999</v>
+        <f t="shared" ref="C41:C51" si="20">(8.7825*(10^-9)*G28^2)+(1.8487*(10^-3)*G28)+5.3102</f>
+        <v>13.537483812000001</v>
       </c>
       <c r="D41" s="5">
-        <f>(8.5764*(10^-9)*H28^2)+(1.8487*(10^-3)*H28)+5.2997</f>
-        <v>9.6707301068644007</v>
+        <f t="shared" ref="D41:D51" si="21">(8.5764*(10^-9)*H28^2)+(1.8487*(10^-3)*H28)+5.2997</f>
+        <v>13.4980620621476</v>
       </c>
       <c r="E41" s="5">
-        <f>(8.7614*(10^-9)*I28^2)+(1.8501*(10^-3)*I28)+5.3593</f>
-        <v>9.6854545183966003</v>
+        <f t="shared" ref="E41:E51" si="22">(8.7614*(10^-9)*I28^2)+(1.8501*(10^-3)*I28)+5.3593</f>
+        <v>13.584580851990403</v>
       </c>
       <c r="F41" s="5">
-        <f>(8.499*(10^-9)*J28^2)+(1.8575*(10^-3)*J28)+5.2698</f>
-        <v>9.6856556520959991</v>
+        <f t="shared" ref="F41:F51" si="23">(8.499*(10^-9)*J28^2)+(1.8575*(10^-3)*J28)+5.2698</f>
+        <v>13.5300625904</v>
       </c>
       <c r="M41" s="4">
-        <f>((G28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>9.3510642500000003</v>
+        <f t="shared" ref="M41:M51" si="24">((G28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
+        <v>13.535135</v>
       </c>
       <c r="N41" s="4">
-        <f>((H28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>9.3448441250000016</v>
+        <f t="shared" ref="N41:N51" si="25">((H28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
+        <v>13.508181125</v>
       </c>
       <c r="O41" s="4">
-        <f>((I28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>9.2909363749999994</v>
+        <f t="shared" ref="O41:O51" si="26">((I28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
+        <v>13.5268415</v>
       </c>
       <c r="P41" s="4">
-        <f>((J28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>9.3717980000000001</v>
+        <f t="shared" ref="P41:P51" si="27">((J28*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
+        <v>13.535135</v>
       </c>
       <c r="R41" s="1">
-        <f>$B41-M41</f>
-        <v>0.6489357499999997</v>
+        <f t="shared" ref="R41:R51" si="28">$B41-M41</f>
+        <v>-3.5351350000000004</v>
       </c>
       <c r="S41" s="1">
-        <f>$B41-N41</f>
-        <v>0.65515587499999839</v>
+        <f t="shared" ref="S41:S51" si="29">$B41-N41</f>
+        <v>-3.5081811250000001</v>
       </c>
       <c r="T41" s="1">
-        <f>$B41-O41</f>
-        <v>0.70906362500000064</v>
+        <f t="shared" ref="T41:T51" si="30">$B41-O41</f>
+        <v>-3.5268414999999997</v>
       </c>
       <c r="U41" s="1">
-        <f>$B41-P41</f>
-        <v>0.62820199999999993</v>
+        <f t="shared" ref="U41:U51" si="31">$B41-P41</f>
+        <v>-3.5351350000000004</v>
       </c>
       <c r="V41" t="s">
         <v>13</v>
@@ -4985,28 +5734,28 @@
       </c>
       <c r="X41" s="1">
         <f>MAX(R41:U51)</f>
-        <v>0.7353128749999982</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+        <v>-0.23709999999999809</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42">
         <v>15</v>
       </c>
       <c r="C42" s="5">
-        <f>(8.7825*(10^-9)*G29^2)+(1.8487*(10^-3)*G29)+5.3102</f>
-        <v>15.246297474919999</v>
+        <f t="shared" si="20"/>
+        <v>17.941341854720001</v>
       </c>
       <c r="D42" s="5">
-        <f>(8.5764*(10^-9)*H29^2)+(1.8487*(10^-3)*H29)+5.2997</f>
-        <v>15.20299041156</v>
+        <f t="shared" si="21"/>
+        <v>17.8923658550084</v>
       </c>
       <c r="E42" s="5">
-        <f>(8.7614*(10^-9)*I29^2)+(1.8501*(10^-3)*I29)+5.3593</f>
-        <v>15.232258565209602</v>
+        <f t="shared" si="22"/>
+        <v>17.992891207857401</v>
       </c>
       <c r="F42" s="5">
-        <f>(8.499*(10^-9)*J29^2)+(1.8575*(10^-3)*J29)+5.2698</f>
-        <v>15.250088545491</v>
+        <f t="shared" si="23"/>
+        <v>17.946793818624002</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -5015,36 +5764,36 @@
         <v>6.1440000000000001</v>
       </c>
       <c r="M42" s="4">
-        <f>((G29*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>15.367998500000001</v>
+        <f t="shared" si="24"/>
+        <v>18.229255999999999</v>
       </c>
       <c r="N42" s="4">
-        <f>((H29*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>15.338971249999998</v>
+        <f t="shared" si="25"/>
+        <v>18.198155375000002</v>
       </c>
       <c r="O42" s="4">
-        <f>((I29*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>15.293357</v>
+        <f t="shared" si="26"/>
+        <v>18.223035875000001</v>
       </c>
       <c r="P42" s="4">
-        <f>((J29*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>15.374218625000001</v>
+        <f t="shared" si="27"/>
+        <v>18.229255999999999</v>
       </c>
       <c r="R42" s="1">
-        <f>$B42-M42</f>
-        <v>-0.36799850000000056</v>
+        <f t="shared" si="28"/>
+        <v>-3.2292559999999995</v>
       </c>
       <c r="S42" s="1">
-        <f>$B42-N42</f>
-        <v>-0.33897124999999839</v>
+        <f t="shared" si="29"/>
+        <v>-3.1981553750000025</v>
       </c>
       <c r="T42" s="1">
-        <f>$B42-O42</f>
-        <v>-0.29335700000000031</v>
+        <f t="shared" si="30"/>
+        <v>-3.2230358750000008</v>
       </c>
       <c r="U42" s="1">
-        <f>$B42-P42</f>
-        <v>-0.37421862500000103</v>
+        <f t="shared" si="31"/>
+        <v>-3.2292559999999995</v>
       </c>
       <c r="V42" t="s">
         <v>14</v>
@@ -5054,28 +5803,28 @@
       </c>
       <c r="X42" s="1">
         <f>MIN(R41:U51)</f>
-        <v>-0.70999300000000076</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+        <v>-3.5351350000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24">
       <c r="B43">
         <v>20</v>
       </c>
       <c r="C43" s="5">
-        <f>(8.7825*(10^-9)*G30^2)+(1.8487*(10^-3)*G30)+5.3102</f>
-        <v>20.21673539072</v>
+        <f t="shared" si="20"/>
+        <v>22.409171601562498</v>
       </c>
       <c r="D43" s="5">
-        <f>(8.5764*(10^-9)*H30^2)+(1.8487*(10^-3)*H30)+5.2997</f>
-        <v>20.148190004787601</v>
+        <f t="shared" si="21"/>
+        <v>22.3504253042084</v>
       </c>
       <c r="E43" s="5">
-        <f>(8.7614*(10^-9)*I30^2)+(1.8501*(10^-3)*I30)+5.3593</f>
-        <v>20.227778425945601</v>
+        <f t="shared" si="22"/>
+        <v>22.446973943654402</v>
       </c>
       <c r="F43" s="5">
-        <f>(8.499*(10^-9)*J30^2)+(1.8575*(10^-3)*J30)+5.2698</f>
-        <v>20.185842572475</v>
+        <f t="shared" si="23"/>
+        <v>22.422533198124</v>
       </c>
       <c r="J43" t="s">
         <v>18</v>
@@ -5084,36 +5833,36 @@
         <v>32768</v>
       </c>
       <c r="M43" s="4">
-        <f>((G30*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>20.617784</v>
+        <f t="shared" si="24"/>
+        <v>22.896423125000002</v>
       </c>
       <c r="N43" s="4">
-        <f>((H30*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>20.570096375000002</v>
+        <f t="shared" si="25"/>
+        <v>22.863249125000003</v>
       </c>
       <c r="O43" s="4">
-        <f>((I30*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>20.568023</v>
+        <f t="shared" si="26"/>
+        <v>22.873616000000002</v>
       </c>
       <c r="P43" s="4">
-        <f>((J30*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>20.574243125000002</v>
+        <f t="shared" si="27"/>
+        <v>22.89434975</v>
       </c>
       <c r="R43" s="1">
-        <f>$B43-M43</f>
-        <v>-0.61778400000000033</v>
+        <f t="shared" si="28"/>
+        <v>-2.8964231250000019</v>
       </c>
       <c r="S43" s="1">
-        <f>$B43-N43</f>
-        <v>-0.5700963750000021</v>
+        <f t="shared" si="29"/>
+        <v>-2.8632491250000029</v>
       </c>
       <c r="T43" s="1">
-        <f>$B43-O43</f>
-        <v>-0.56802300000000017</v>
+        <f t="shared" si="30"/>
+        <v>-2.8736160000000019</v>
       </c>
       <c r="U43" s="1">
-        <f>$B43-P43</f>
-        <v>-0.57424312500000241</v>
+        <f t="shared" si="31"/>
+        <v>-2.8943497499999999</v>
       </c>
       <c r="V43" t="s">
         <v>15</v>
@@ -5123,28 +5872,28 @@
       </c>
       <c r="X43" s="1">
         <f>X41-X42</f>
-        <v>1.445305874999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+        <v>3.2980350000000023</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44">
         <v>25</v>
       </c>
       <c r="C44" s="5">
-        <f>(8.7825*(10^-9)*G31^2)+(1.8487*(10^-3)*G31)+5.3102</f>
-        <v>25.125288536729997</v>
+        <f t="shared" si="20"/>
+        <v>26.933299418250002</v>
       </c>
       <c r="D44" s="5">
-        <f>(8.5764*(10^-9)*H31^2)+(1.8487*(10^-3)*H31)+5.2997</f>
-        <v>25.038610577610001</v>
+        <f t="shared" si="21"/>
+        <v>26.8525003260416</v>
       </c>
       <c r="E44" s="5">
-        <f>(8.7614*(10^-9)*I31^2)+(1.8501*(10^-3)*I31)+5.3593</f>
-        <v>25.145913756165605</v>
+        <f t="shared" si="22"/>
+        <v>26.974902094000001</v>
       </c>
       <c r="F44" s="5">
-        <f>(8.499*(10^-9)*J31^2)+(1.8575*(10^-3)*J31)+5.2698</f>
-        <v>25.165532810176</v>
+        <f t="shared" si="23"/>
+        <v>26.947489162764001</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -5153,60 +5902,60 @@
         <v>11.058</v>
       </c>
       <c r="M44" s="4">
-        <f>((G31*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>25.689259249999999</v>
+        <f t="shared" si="24"/>
+        <v>27.530416249999998</v>
       </c>
       <c r="N44" s="4">
-        <f>((H31*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>25.633278125</v>
+        <f t="shared" si="25"/>
+        <v>27.484801999999998</v>
       </c>
       <c r="O44" s="4">
-        <f>((I31*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>25.64779175</v>
+        <f t="shared" si="26"/>
+        <v>27.509682499999997</v>
       </c>
       <c r="P44" s="4">
-        <f>((J31*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>25.709993000000001</v>
+        <f t="shared" si="27"/>
+        <v>27.522122749999998</v>
       </c>
       <c r="R44" s="1">
-        <f>$B44-M44</f>
-        <v>-0.68925924999999921</v>
+        <f t="shared" si="28"/>
+        <v>-2.5304162499999983</v>
       </c>
       <c r="S44" s="1">
-        <f>$B44-N44</f>
-        <v>-0.63327812500000036</v>
+        <f t="shared" si="29"/>
+        <v>-2.4848019999999984</v>
       </c>
       <c r="T44" s="1">
-        <f>$B44-O44</f>
-        <v>-0.64779174999999967</v>
+        <f t="shared" si="30"/>
+        <v>-2.5096824999999967</v>
       </c>
       <c r="U44" s="1">
-        <f>$B44-P44</f>
-        <v>-0.70999300000000076</v>
+        <f t="shared" si="31"/>
+        <v>-2.5221227499999976</v>
       </c>
       <c r="V44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24">
       <c r="B45">
         <v>30</v>
       </c>
       <c r="C45" s="5">
-        <f>(8.7825*(10^-9)*G32^2)+(1.8487*(10^-3)*G32)+5.3102</f>
-        <v>29.993989697130004</v>
+        <f t="shared" si="20"/>
+        <v>31.541002187342499</v>
       </c>
       <c r="D45" s="5">
-        <f>(8.5764*(10^-9)*H32^2)+(1.8487*(10^-3)*H32)+5.2997</f>
-        <v>29.911551715312399</v>
+        <f t="shared" si="21"/>
+        <v>31.439798022659595</v>
       </c>
       <c r="E45" s="5">
-        <f>(8.7614*(10^-9)*I32^2)+(1.8501*(10^-3)*I32)+5.3593</f>
-        <v>29.9973307780254</v>
+        <f t="shared" si="22"/>
+        <v>31.573769205657602</v>
       </c>
       <c r="F45" s="5">
-        <f>(8.499*(10^-9)*J32^2)+(1.8575*(10^-3)*J32)+5.2698</f>
-        <v>29.988385224611001</v>
+        <f t="shared" si="23"/>
+        <v>31.559210399578998</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -5215,116 +5964,116 @@
         <v>3.5</v>
       </c>
       <c r="M45" s="4">
-        <f>((G32*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>30.615598250000001</v>
+        <f t="shared" si="24"/>
+        <v>32.160262625000001</v>
       </c>
       <c r="N45" s="4">
-        <f>((H32*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>30.576204125</v>
+        <f t="shared" si="25"/>
+        <v>32.106354874999994</v>
       </c>
       <c r="O45" s="4">
-        <f>((I32*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>30.555470374999999</v>
+        <f t="shared" si="26"/>
+        <v>32.129162000000001</v>
       </c>
       <c r="P45" s="4">
-        <f>((J32*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>30.584497625000001</v>
+        <f t="shared" si="27"/>
+        <v>32.151969125000001</v>
       </c>
       <c r="R45" s="1">
-        <f>$B45-M45</f>
-        <v>-0.61559825000000146</v>
+        <f t="shared" si="28"/>
+        <v>-2.1602626250000014</v>
       </c>
       <c r="S45" s="1">
-        <f>$B45-N45</f>
-        <v>-0.57620412500000029</v>
+        <f t="shared" si="29"/>
+        <v>-2.1063548749999939</v>
       </c>
       <c r="T45" s="1">
-        <f>$B45-O45</f>
-        <v>-0.55547037499999874</v>
+        <f t="shared" si="30"/>
+        <v>-2.1291620000000009</v>
       </c>
       <c r="U45" s="1">
-        <f>$B45-P45</f>
-        <v>-0.58449762500000091</v>
+        <f t="shared" si="31"/>
+        <v>-2.1519691250000008</v>
       </c>
       <c r="V45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24">
       <c r="B46">
         <v>35</v>
       </c>
       <c r="C46" s="5">
-        <f>(8.7825*(10^-9)*G33^2)+(1.8487*(10^-3)*G33)+5.3102</f>
-        <v>34.849955486582502</v>
+        <f t="shared" si="20"/>
+        <v>36.198090704329999</v>
       </c>
       <c r="D46" s="5">
-        <f>(8.5764*(10^-9)*H33^2)+(1.8487*(10^-3)*H33)+5.2997</f>
-        <v>34.734647047203602</v>
+        <f t="shared" si="21"/>
+        <v>36.086935339918398</v>
       </c>
       <c r="E46" s="5">
-        <f>(8.7614*(10^-9)*I33^2)+(1.8501*(10^-3)*I33)+5.3593</f>
-        <v>34.839242539514998</v>
+        <f t="shared" si="22"/>
+        <v>36.227780917313403</v>
       </c>
       <c r="F46" s="5">
-        <f>(8.499*(10^-9)*J33^2)+(1.8575*(10^-3)*J33)+5.2698</f>
-        <v>34.862965438604</v>
+        <f t="shared" si="23"/>
+        <v>36.215369980691001</v>
       </c>
       <c r="M46" s="4">
-        <f>((G33*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>35.432048374999994</v>
+        <f t="shared" si="24"/>
+        <v>36.752788249999995</v>
       </c>
       <c r="N46" s="4">
-        <f>((H33*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>35.373993874999996</v>
+        <f t="shared" si="25"/>
+        <v>36.703027249999998</v>
       </c>
       <c r="O46" s="4">
-        <f>((I33*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>35.357406874999995</v>
+        <f t="shared" si="26"/>
+        <v>36.717540874999997</v>
       </c>
       <c r="P46" s="4">
-        <f>((J33*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>35.417534750000002</v>
+        <f t="shared" si="27"/>
+        <v>36.742421374999999</v>
       </c>
       <c r="R46" s="1">
-        <f>$B46-M46</f>
-        <v>-0.43204837499999371</v>
+        <f t="shared" si="28"/>
+        <v>-1.7527882499999947</v>
       </c>
       <c r="S46" s="1">
-        <f>$B46-N46</f>
-        <v>-0.37399387499999648</v>
+        <f t="shared" si="29"/>
+        <v>-1.7030272499999981</v>
       </c>
       <c r="T46" s="1">
-        <f>$B46-O46</f>
-        <v>-0.35740687499999524</v>
+        <f t="shared" si="30"/>
+        <v>-1.7175408749999974</v>
       </c>
       <c r="U46" s="1">
-        <f>$B46-P46</f>
-        <v>-0.41753475000000151</v>
+        <f t="shared" si="31"/>
+        <v>-1.7424213749999993</v>
       </c>
       <c r="V46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24">
       <c r="B47">
         <v>40</v>
       </c>
       <c r="C47" s="5">
-        <f>(8.7825*(10^-9)*G34^2)+(1.8487*(10^-3)*G34)+5.3102</f>
-        <v>39.891090103370004</v>
+        <f t="shared" si="20"/>
+        <v>41.155370532479999</v>
       </c>
       <c r="D47" s="5">
-        <f>(8.5764*(10^-9)*H34^2)+(1.8487*(10^-3)*H34)+5.2997</f>
-        <v>39.7375008877056</v>
+        <f t="shared" si="21"/>
+        <v>41.012235806368402</v>
       </c>
       <c r="E47" s="5">
-        <f>(8.7614*(10^-9)*I34^2)+(1.8501*(10^-3)*I34)+5.3593</f>
-        <v>39.869827465035002</v>
+        <f t="shared" si="22"/>
+        <v>41.1794899705056</v>
       </c>
       <c r="F47" s="5">
-        <f>(8.499*(10^-9)*J34^2)+(1.8575*(10^-3)*J34)+5.2698</f>
-        <v>39.875072311243997</v>
+        <f t="shared" si="23"/>
+        <v>41.170885626811</v>
       </c>
       <c r="J47" t="s">
         <v>1</v>
@@ -5333,269 +6082,269 @@
         <v>0.09</v>
       </c>
       <c r="M47" s="4">
-        <f>((G34*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>40.33558025</v>
+        <f t="shared" si="24"/>
+        <v>41.550577999999994</v>
       </c>
       <c r="N47" s="4">
-        <f>((H34*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>40.256791999999997</v>
+        <f t="shared" si="25"/>
+        <v>41.486303374999999</v>
       </c>
       <c r="O47" s="4">
-        <f>((I34*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>40.250571874999999</v>
+        <f t="shared" si="26"/>
+        <v>41.509110499999998</v>
       </c>
       <c r="P47" s="4">
-        <f>((J34*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>40.294112749999996</v>
+        <f t="shared" si="27"/>
+        <v>41.540211124999999</v>
       </c>
       <c r="R47" s="1">
-        <f>$B47-M47</f>
-        <v>-0.33558024999999958</v>
+        <f t="shared" si="28"/>
+        <v>-1.5505779999999945</v>
       </c>
       <c r="S47" s="1">
-        <f>$B47-N47</f>
-        <v>-0.25679199999999724</v>
+        <f t="shared" si="29"/>
+        <v>-1.4863033749999985</v>
       </c>
       <c r="T47" s="1">
-        <f>$B47-O47</f>
-        <v>-0.25057187499999856</v>
+        <f t="shared" si="30"/>
+        <v>-1.5091104999999985</v>
       </c>
       <c r="U47" s="1">
-        <f>$B47-P47</f>
-        <v>-0.29411274999999648</v>
+        <f t="shared" si="31"/>
+        <v>-1.540211124999999</v>
       </c>
       <c r="V47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24">
       <c r="B48">
         <v>45</v>
       </c>
       <c r="C48" s="5">
-        <f>(8.7825*(10^-9)*G35^2)+(1.8487*(10^-3)*G35)+5.3102</f>
-        <v>44.8594013044425</v>
+        <f t="shared" si="20"/>
+        <v>46.076741652942502</v>
       </c>
       <c r="D48" s="5">
-        <f>(8.5764*(10^-9)*H35^2)+(1.8487*(10^-3)*H35)+5.2997</f>
-        <v>44.700050880528401</v>
+        <f t="shared" si="21"/>
+        <v>45.912554222010002</v>
       </c>
       <c r="E48" s="5">
-        <f>(8.7614*(10^-9)*I35^2)+(1.8501*(10^-3)*I35)+5.3593</f>
-        <v>44.866420848835006</v>
+        <f t="shared" si="22"/>
+        <v>46.097014974434998</v>
       </c>
       <c r="F48" s="5">
-        <f>(8.499*(10^-9)*J35^2)+(1.8575*(10^-3)*J35)+5.2698</f>
-        <v>44.867303197644006</v>
+        <f t="shared" si="23"/>
+        <v>46.078818620076007</v>
       </c>
       <c r="M48" s="4">
-        <f>((G35*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>45.077388874999997</v>
+        <f t="shared" si="24"/>
+        <v>46.226038625000001</v>
       </c>
       <c r="N48" s="4">
-        <f>((H35*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>45.011040874999999</v>
+        <f t="shared" si="25"/>
+        <v>46.159690625000003</v>
       </c>
       <c r="O48" s="4">
-        <f>((I35*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>45.019334375</v>
+        <f t="shared" si="26"/>
+        <v>46.180424374999994</v>
       </c>
       <c r="P48" s="4">
-        <f>((J35*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>45.062875249999998</v>
+        <f t="shared" si="27"/>
+        <v>46.207378249999998</v>
       </c>
       <c r="R48" s="1">
-        <f>$B48-M48</f>
-        <v>-7.7388874999996915E-2</v>
+        <f t="shared" si="28"/>
+        <v>-1.226038625000001</v>
       </c>
       <c r="S48" s="1">
-        <f>$B48-N48</f>
-        <v>-1.1040874999999062E-2</v>
+        <f t="shared" si="29"/>
+        <v>-1.1596906250000032</v>
       </c>
       <c r="T48" s="1">
-        <f>$B48-O48</f>
-        <v>-1.9334374999999682E-2</v>
+        <f t="shared" si="30"/>
+        <v>-1.1804243749999941</v>
       </c>
       <c r="U48" s="1">
-        <f>$B48-P48</f>
-        <v>-6.2875249999997607E-2</v>
+        <f t="shared" si="31"/>
+        <v>-1.2073782499999979</v>
       </c>
       <c r="V48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="B49">
         <v>50</v>
       </c>
       <c r="C49" s="5">
-        <f>(8.7825*(10^-9)*G36^2)+(1.8487*(10^-3)*G36)+5.3102</f>
-        <v>49.950843050970001</v>
+        <f t="shared" si="20"/>
+        <v>51.091914952320003</v>
       </c>
       <c r="D49" s="5">
-        <f>(8.5764*(10^-9)*H36^2)+(1.8487*(10^-3)*H36)+5.2997</f>
-        <v>49.772797328483605</v>
+        <f t="shared" si="21"/>
+        <v>50.9000177124964</v>
       </c>
       <c r="E49" s="5">
-        <f>(8.7614*(10^-9)*I36^2)+(1.8501*(10^-3)*I36)+5.3593</f>
-        <v>49.940080074981601</v>
+        <f t="shared" si="22"/>
+        <v>51.101244002868597</v>
       </c>
       <c r="F49" s="5">
-        <f>(8.499*(10^-9)*J36^2)+(1.8575*(10^-3)*J36)+5.2698</f>
-        <v>49.907102185090991</v>
+        <f t="shared" si="23"/>
+        <v>51.084069350123997</v>
       </c>
       <c r="M49" s="4">
-        <f>((G36*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>49.84822475</v>
+        <f t="shared" si="24"/>
+        <v>50.905645999999997</v>
       </c>
       <c r="N49" s="4">
-        <f>((H36*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>49.783950124999997</v>
+        <f t="shared" si="25"/>
+        <v>50.833077874999994</v>
       </c>
       <c r="O49" s="4">
-        <f>((I36*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>49.773583249999994</v>
+        <f t="shared" si="26"/>
+        <v>50.849664874999995</v>
       </c>
       <c r="P49" s="4">
-        <f>((J36*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>49.792243624999998</v>
+        <f t="shared" si="27"/>
+        <v>50.884912249999999</v>
       </c>
       <c r="R49" s="1">
-        <f>$B49-M49</f>
-        <v>0.15177525000000003</v>
+        <f t="shared" si="28"/>
+        <v>-0.90564599999999729</v>
       </c>
       <c r="S49" s="1">
-        <f>$B49-N49</f>
-        <v>0.21604987500000306</v>
+        <f t="shared" si="29"/>
+        <v>-0.83307787499999364</v>
       </c>
       <c r="T49" s="1">
-        <f>$B49-O49</f>
-        <v>0.22641675000000561</v>
+        <f t="shared" si="30"/>
+        <v>-0.84966487499999488</v>
       </c>
       <c r="U49" s="1">
-        <f>$B49-P49</f>
-        <v>0.20775637500000244</v>
+        <f t="shared" si="31"/>
+        <v>-0.88491224999999929</v>
       </c>
       <c r="V49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="B50">
         <v>55</v>
       </c>
       <c r="C50" s="5">
-        <f>(8.7825*(10^-9)*G37^2)+(1.8487*(10^-3)*G37)+5.3102</f>
-        <v>55.064819553920003</v>
+        <f t="shared" si="20"/>
+        <v>56.157781934720006</v>
       </c>
       <c r="D50" s="5">
-        <f>(8.5764*(10^-9)*H37^2)+(1.8487*(10^-3)*H37)+5.2997</f>
-        <v>54.884398849537597</v>
+        <f t="shared" si="21"/>
+        <v>55.929215501619595</v>
       </c>
       <c r="E50" s="5">
-        <f>(8.7614*(10^-9)*I37^2)+(1.8501*(10^-3)*I37)+5.3593</f>
-        <v>55.069506697515003</v>
+        <f t="shared" si="22"/>
+        <v>56.1601221741304</v>
       </c>
       <c r="F50" s="5">
-        <f>(8.499*(10^-9)*J37^2)+(1.8575*(10^-3)*J37)+5.2698</f>
-        <v>55.087501037698999</v>
+        <f t="shared" si="23"/>
+        <v>56.132588027179011</v>
       </c>
       <c r="M50" s="4">
-        <f>((G37*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>54.554786</v>
+        <f t="shared" si="24"/>
+        <v>55.550005999999996</v>
       </c>
       <c r="N50" s="4">
-        <f>((H37*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>54.50917175</v>
+        <f t="shared" si="25"/>
+        <v>55.464997624999995</v>
       </c>
       <c r="O50" s="4">
-        <f>((I37*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>54.494658124999994</v>
+        <f t="shared" si="26"/>
+        <v>55.487804749999995</v>
       </c>
       <c r="P50" s="4">
-        <f>((J37*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>54.569299624999999</v>
+        <f t="shared" si="27"/>
+        <v>55.523052125</v>
       </c>
       <c r="R50" s="1">
-        <f>$B50-M50</f>
-        <v>0.445214</v>
+        <f t="shared" si="28"/>
+        <v>-0.55000599999999622</v>
       </c>
       <c r="S50" s="1">
-        <f>$B50-N50</f>
-        <v>0.49082824999999985</v>
+        <f t="shared" si="29"/>
+        <v>-0.4649976249999952</v>
       </c>
       <c r="T50" s="1">
-        <f>$B50-O50</f>
-        <v>0.50534187500000627</v>
+        <f t="shared" si="30"/>
+        <v>-0.48780474999999512</v>
       </c>
       <c r="U50" s="1">
-        <f>$B50-P50</f>
-        <v>0.43070037500000069</v>
+        <f t="shared" si="31"/>
+        <v>-0.52305212499999953</v>
       </c>
       <c r="V50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="B51">
         <v>58</v>
       </c>
       <c r="C51" s="5">
-        <f>(8.7825*(10^-9)*G38^2)+(1.8487*(10^-3)*G38)+5.3102</f>
-        <v>58.119238252982505</v>
+        <f t="shared" si="20"/>
+        <v>59.230387342120004</v>
       </c>
       <c r="D51" s="5">
-        <f>(8.5764*(10^-9)*H38^2)+(1.8487*(10^-3)*H38)+5.2997</f>
-        <v>57.906355968336399</v>
+        <f t="shared" si="21"/>
+        <v>58.980027464960003</v>
       </c>
       <c r="E51" s="5">
-        <f>(8.7614*(10^-9)*I38^2)+(1.8501*(10^-3)*I38)+5.3593</f>
-        <v>58.121421747521403</v>
+        <f t="shared" si="22"/>
+        <v>59.237077947494406</v>
       </c>
       <c r="F51" s="5">
-        <f>(8.499*(10^-9)*J38^2)+(1.8575*(10^-3)*J38)+5.2698</f>
-        <v>58.121290421675994</v>
+        <f t="shared" si="23"/>
+        <v>59.199770077696002</v>
       </c>
       <c r="M51" s="4">
-        <f>((G38*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>57.326888374999996</v>
+        <f t="shared" si="24"/>
+        <v>58.328328499999998</v>
       </c>
       <c r="N51" s="4">
-        <f>((H38*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>57.264687125000002</v>
+        <f t="shared" si="25"/>
+        <v>58.237099999999998</v>
       </c>
       <c r="O51" s="4">
-        <f>((I38*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>57.264687125000002</v>
+        <f t="shared" si="26"/>
+        <v>58.270274000000001</v>
       </c>
       <c r="P51" s="4">
-        <f>((J38*$K$42)/($K$43)+$K$47)*$K$44+$K$45</f>
-        <v>57.328961749999998</v>
+        <f t="shared" si="27"/>
+        <v>58.303447999999996</v>
       </c>
       <c r="R51" s="1">
-        <f>$B51-M51</f>
-        <v>0.67311162500000421</v>
+        <f t="shared" si="28"/>
+        <v>-0.3283284999999978</v>
       </c>
       <c r="S51" s="1">
-        <f>$B51-N51</f>
-        <v>0.7353128749999982</v>
+        <f t="shared" si="29"/>
+        <v>-0.23709999999999809</v>
       </c>
       <c r="T51" s="1">
-        <f>$B51-O51</f>
-        <v>0.7353128749999982</v>
+        <f t="shared" si="30"/>
+        <v>-0.27027400000000057</v>
       </c>
       <c r="U51" s="1">
-        <f>$B51-P51</f>
-        <v>0.67103825000000228</v>
+        <f t="shared" si="31"/>
+        <v>-0.30344799999999594</v>
       </c>
       <c r="V51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="M52" s="4"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
@@ -5624,438 +6373,454 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
+      <c r="A55" s="10" t="e">
+        <f>ROUND(AVERAGE(A56:A105),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B55" s="10" t="e">
+        <f t="shared" ref="B55:D55" si="32">ROUND(AVERAGE(B56:B105),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" s="10" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="10" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L55">
         <v>10</v>
       </c>
       <c r="M55">
-        <f>(-4.8928*(10^-13)*G28^3)+(2.9317*(10^-8)*G28^2)+(1.6089*(10^-3)*G28)+5.984+$K$57</f>
-        <v>9.8865613035665767</v>
+        <f>(2.527*(10^-14)*G28^3)-(1.5459*(10^-9)*G28^2)+(2.2487*(10^-3)*G28)+(1.9093*(10^-1))+$K$57</f>
+        <v>9.9619694838611199</v>
       </c>
       <c r="N55">
-        <f>(-4.9154*(10^-13)*H28^3)+(2.9183*(10^-8)*H28^2)+(1.6164*(10^-3)*H28)+5.9743+$K$57</f>
-        <v>9.8884275036899929</v>
+        <f>(2.9633*(10^-14)*G28^3)-(1.7011*(10^-9)*G28^2)+(2.2531*(10^-3)*G28)+(2.0171*(10^-1))+$K$57</f>
+        <v>9.9893448074788473</v>
       </c>
       <c r="O55">
-        <f>(-5.0841*(10^-13)*H28^3)+(3.0052*(10^-8)*I28^2)+(1.6023*(10^-3)*I28)+6.0518+$K$57</f>
-        <v>9.8921913078462183</v>
+        <f>(2.1699*(10^-14)*G28^3)-(1.3901*(10^-9)*G28^2)+(2.2495*(10^-3)*G28)+(1.9203*(10^-1))+$K$57</f>
+        <v>9.9692232084333448</v>
       </c>
       <c r="P55">
-        <f>(-5.0743*(10^-13)*H28^3)+(2.9806*(10^-8)*J28^2)+(1.6086*(10^-3)*J28)+5.9709+$K$57</f>
-        <v>9.8927178106367535</v>
+        <f>(2.5082*(10^-14)*G28^3)-(1.51*(10^-9)*G28^2)+(2.2491*(10^-3)*G28)+(1.879*(10^-1))+$K$57</f>
+        <v>9.9613503467121909</v>
       </c>
       <c r="R55" s="1">
-        <f>M55-$L55</f>
-        <v>-0.1134386964334233</v>
+        <f t="shared" ref="R55:R65" si="33">M55-$L55</f>
+        <v>-3.8030516138880088E-2</v>
       </c>
       <c r="S55" s="1">
-        <f>N55-$L55</f>
-        <v>-0.1115724963100071</v>
+        <f t="shared" ref="S55:S65" si="34">N55-$L55</f>
+        <v>-1.0655192521152657E-2</v>
       </c>
       <c r="T55" s="1">
-        <f>O55-$L55</f>
-        <v>-0.10780869215378175</v>
+        <f t="shared" ref="T55:T65" si="35">O55-$L55</f>
+        <v>-3.0776791566655248E-2</v>
       </c>
       <c r="U55" s="1">
-        <f>P55-$L55</f>
-        <v>-0.10728218936324652</v>
+        <f t="shared" ref="U55:U65" si="36">P55-$L55</f>
+        <v>-3.8649653287809116E-2</v>
       </c>
       <c r="W55" t="s">
         <v>3</v>
       </c>
       <c r="X55" s="1">
         <f>MAX(R55:U65)</f>
-        <v>0.1392227171481899</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+        <v>0.10912004265560427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="L56">
         <v>15</v>
       </c>
       <c r="M56">
-        <f>(-4.8928*(10^-13)*G29^3)+(2.9317*(10^-8)*G29^2)+(1.6089*(10^-3)*G29)+5.984+$K$57</f>
-        <v>15.136717618635926</v>
+        <f t="shared" ref="M56:M65" si="37">(2.527*(10^-14)*G29^3)-(1.5459*(10^-9)*G29^2)+(2.2487*(10^-3)*G29)+(1.9093*(10^-1))+$K$57</f>
+        <v>15.019833331716629</v>
       </c>
       <c r="N56">
-        <f>(-4.9154*(10^-13)*H29^3)+(2.9183*(10^-8)*H29^2)+(1.6164*(10^-3)*H29)+5.9743+$K$57</f>
-        <v>15.13599409814282</v>
+        <f t="shared" ref="N56:N65" si="38">(2.9633*(10^-14)*G29^3)-(1.7011*(10^-9)*G29^2)+(2.2531*(10^-3)*G29)+(2.0171*(10^-1))+$K$57</f>
+        <v>15.054217241593046</v>
       </c>
       <c r="O56">
-        <f>(-5.0841*(10^-13)*H29^3)+(3.0052*(10^-8)*I29^2)+(1.6023*(10^-3)*I29)+6.0518+$K$57</f>
-        <v>15.118955798068532</v>
+        <f t="shared" ref="O56:O65" si="39">(2.1699*(10^-14)*G29^3)-(1.3901*(10^-9)*G29^2)+(2.2495*(10^-3)*G29)+(1.9203*(10^-1))+$K$57</f>
+        <v>15.032030738106801</v>
       </c>
       <c r="P56">
-        <f>(-5.0743*(10^-13)*H29^3)+(2.9806*(10^-8)*J29^2)+(1.6086*(10^-3)*J29)+5.9709+$K$57</f>
-        <v>15.13922271714819</v>
+        <f t="shared" ref="P56:P65" si="40">(2.5082*(10^-14)*G29^3)-(1.51*(10^-9)*G29^2)+(2.2491*(10^-3)*G29)+(1.879*(10^-1))+$K$57</f>
+        <v>15.020973488492167</v>
       </c>
       <c r="R56" s="1">
-        <f>M56-$L56</f>
-        <v>0.13671761863592558</v>
+        <f t="shared" si="33"/>
+        <v>1.9833331716629488E-2</v>
       </c>
       <c r="S56" s="1">
-        <f>N56-$L56</f>
-        <v>0.13599409814282026</v>
+        <f t="shared" si="34"/>
+        <v>5.4217241593045529E-2</v>
       </c>
       <c r="T56" s="1">
-        <f>O56-$L56</f>
-        <v>0.11895579806853185</v>
+        <f t="shared" si="35"/>
+        <v>3.2030738106801238E-2</v>
       </c>
       <c r="U56" s="1">
-        <f>P56-$L56</f>
-        <v>0.1392227171481899</v>
+        <f t="shared" si="36"/>
+        <v>2.0973488492167291E-2</v>
       </c>
       <c r="W56" t="s">
         <v>2</v>
       </c>
       <c r="X56" s="1">
         <f>MIN(R55:U65)</f>
-        <v>-0.13897161259993851</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+        <v>-0.108819950097093</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="J57" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="2">
-        <v>-0.02</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="L57">
         <v>20</v>
       </c>
       <c r="M57">
-        <f>(-4.8928*(10^-13)*G30^3)+(2.9317*(10^-8)*G30^2)+(1.6089*(10^-3)*G30)+5.984+$K$57</f>
-        <v>20.017441172538657</v>
+        <f t="shared" si="37"/>
+        <v>20.038043585488282</v>
       </c>
       <c r="N57">
-        <f>(-4.9154*(10^-13)*H30^3)+(2.9183*(10^-8)*H30^2)+(1.6164*(10^-3)*H30)+5.9743+$K$57</f>
-        <v>20.011340409000233</v>
+        <f t="shared" si="38"/>
+        <v>20.07869909348242</v>
       </c>
       <c r="O57">
-        <f>(-5.0841*(10^-13)*H30^3)+(3.0052*(10^-8)*I30^2)+(1.6023*(10^-3)*I30)+6.0518+$K$57</f>
-        <v>20.021827737335105</v>
+        <f t="shared" si="39"/>
+        <v>20.056018980447263</v>
       </c>
       <c r="P57">
-        <f>(-5.0743*(10^-13)*H30^3)+(2.9806*(10^-8)*J30^2)+(1.6086*(10^-3)*J30)+5.9709+$K$57</f>
-        <v>19.981651444920946</v>
+        <f t="shared" si="40"/>
+        <v>20.04125985098047</v>
       </c>
       <c r="R57" s="1">
-        <f>M57-$L57</f>
-        <v>1.7441172538656957E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.8043585488281906E-2</v>
       </c>
       <c r="S57" s="1">
-        <f>N57-$L57</f>
-        <v>1.1340409000233365E-2</v>
+        <f t="shared" si="34"/>
+        <v>7.8699093482420324E-2</v>
       </c>
       <c r="T57" s="1">
-        <f>O57-$L57</f>
-        <v>2.1827737335105013E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.6018980447262834E-2</v>
       </c>
       <c r="U57" s="1">
-        <f>P57-$L57</f>
-        <v>-1.8348555079054307E-2</v>
+        <f t="shared" si="36"/>
+        <v>4.1259850980470247E-2</v>
       </c>
       <c r="W57" t="s">
         <v>0</v>
       </c>
       <c r="X57" s="1">
         <f>X55-X56</f>
-        <v>0.27819432974812841</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+        <v>0.21793999275269726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="L58">
         <v>25</v>
       </c>
       <c r="M58">
-        <f>(-4.8928*(10^-13)*G31^3)+(2.9317*(10^-8)*G31^2)+(1.6089*(10^-3)*G31)+5.984+$K$57</f>
-        <v>24.95089332752644</v>
+        <f t="shared" si="37"/>
+        <v>25.011826841655374</v>
       </c>
       <c r="N58">
-        <f>(-4.9154*(10^-13)*H31^3)+(2.9183*(10^-8)*H31^2)+(1.6164*(10^-3)*H31)+5.9743+$K$57</f>
-        <v>24.945861924612341</v>
+        <f t="shared" si="38"/>
+        <v>25.058317295278421</v>
       </c>
       <c r="O58">
-        <f>(-5.0841*(10^-13)*H31^3)+(3.0052*(10^-8)*I31^2)+(1.6023*(10^-3)*I31)+6.0518+$K$57</f>
-        <v>24.967565198303902</v>
+        <f t="shared" si="39"/>
+        <v>25.036148541152066</v>
       </c>
       <c r="P58">
-        <f>(-5.0743*(10^-13)*H31^3)+(2.9806*(10^-8)*J31^2)+(1.6086*(10^-3)*J31)+5.9709+$K$57</f>
-        <v>24.992902049841479</v>
+        <f t="shared" si="40"/>
+        <v>25.017414243886741</v>
       </c>
       <c r="R58" s="1">
-        <f>M58-$L58</f>
-        <v>-4.9106672473559598E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.1826841655373954E-2</v>
       </c>
       <c r="S58" s="1">
-        <f>N58-$L58</f>
-        <v>-5.4138075387658802E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.8317295278421E-2</v>
       </c>
       <c r="T58" s="1">
-        <f>O58-$L58</f>
-        <v>-3.2434801696098248E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.6148541152066116E-2</v>
       </c>
       <c r="U58" s="1">
-        <f>P58-$L58</f>
-        <v>-7.0979501585206606E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>1.7414243886740621E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="L59">
         <v>30</v>
       </c>
       <c r="M59">
-        <f>(-4.8928*(10^-13)*G32^3)+(2.9317*(10^-8)*G32^2)+(1.6089*(10^-3)*G32)+5.984+$K$57</f>
-        <v>29.907533685769582</v>
+        <f t="shared" si="37"/>
+        <v>29.974138424835523</v>
       </c>
       <c r="N59">
-        <f>(-4.9154*(10^-13)*H32^3)+(2.9183*(10^-8)*H32^2)+(1.6164*(10^-3)*H32)+5.9743+$K$57</f>
-        <v>29.926301221836862</v>
+        <f t="shared" si="38"/>
+        <v>30.026360928037398</v>
       </c>
       <c r="O59">
-        <f>(-5.0841*(10^-13)*H32^3)+(3.0052*(10^-8)*I32^2)+(1.6023*(10^-3)*I32)+6.0518+$K$57</f>
-        <v>29.906781900838165</v>
+        <f t="shared" si="39"/>
+        <v>30.005167762517402</v>
       </c>
       <c r="P59">
-        <f>(-5.0743*(10^-13)*H32^3)+(2.9806*(10^-8)*J32^2)+(1.6086*(10^-3)*J32)+5.9709+$K$57</f>
-        <v>29.901170089765099</v>
+        <f t="shared" si="40"/>
+        <v>29.982390505057669</v>
       </c>
       <c r="R59" s="1">
-        <f>M59-$L59</f>
-        <v>-9.2466314230417623E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.5861575164476847E-2</v>
       </c>
       <c r="S59" s="1">
-        <f>N59-$L59</f>
-        <v>-7.3698778163137746E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.6360928037398423E-2</v>
       </c>
       <c r="T59" s="1">
-        <f>O59-$L59</f>
-        <v>-9.3218099161834544E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.1677625174022523E-3</v>
       </c>
       <c r="U59" s="1">
-        <f>P59-$L59</f>
-        <v>-9.8829910234901064E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>-1.7609494942330883E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="L60">
         <v>35</v>
       </c>
       <c r="M60">
-        <f>(-4.8928*(10^-13)*G33^3)+(2.9317*(10^-8)*G33^2)+(1.6089*(10^-3)*G33)+5.984+$K$57</f>
-        <v>34.872057262789525</v>
+        <f t="shared" si="37"/>
+        <v>34.891180049902907</v>
       </c>
       <c r="N60">
-        <f>(-4.9154*(10^-13)*H33^3)+(2.9183*(10^-8)*H33^2)+(1.6164*(10^-3)*H33)+5.9743+$K$57</f>
-        <v>34.87647822095893</v>
+        <f t="shared" si="38"/>
+        <v>34.949279216843507</v>
       </c>
       <c r="O60">
-        <f>(-5.0841*(10^-13)*H33^3)+(3.0052*(10^-8)*I33^2)+(1.6023*(10^-3)*I33)+6.0518+$K$57</f>
-        <v>34.861028387400061</v>
+        <f t="shared" si="39"/>
+        <v>34.928990255196609</v>
       </c>
       <c r="P60">
-        <f>(-5.0743*(10^-13)*H33^3)+(2.9806*(10^-8)*J33^2)+(1.6086*(10^-3)*J33)+5.9709+$K$57</f>
-        <v>34.895043438076421</v>
+        <f t="shared" si="40"/>
+        <v>34.902354916867729</v>
       </c>
       <c r="R60" s="1">
-        <f>M60-$L60</f>
-        <v>-0.12794273721047489</v>
+        <f t="shared" si="33"/>
+        <v>-0.108819950097093</v>
       </c>
       <c r="S60" s="1">
-        <f>N60-$L60</f>
-        <v>-0.12352177904107009</v>
+        <f t="shared" si="34"/>
+        <v>-5.0720783156492644E-2</v>
       </c>
       <c r="T60" s="1">
-        <f>O60-$L60</f>
-        <v>-0.13897161259993851</v>
+        <f t="shared" si="35"/>
+        <v>-7.1009744803390618E-2</v>
       </c>
       <c r="U60" s="1">
-        <f>P60-$L60</f>
-        <v>-0.10495656192357927</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>-9.7645083132270827E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="L61">
         <v>40</v>
       </c>
       <c r="M61">
-        <f>(-4.8928*(10^-13)*G34^3)+(2.9317*(10^-8)*G34^2)+(1.6089*(10^-3)*G34)+5.984+$K$57</f>
-        <v>40.008326909433116</v>
+        <f t="shared" si="37"/>
+        <v>40.024175931138096</v>
       </c>
       <c r="N61">
-        <f>(-4.9154*(10^-13)*H34^3)+(2.9183*(10^-8)*H34^2)+(1.6164*(10^-3)*H34)+5.9743+$K$57</f>
-        <v>39.993545829652149</v>
+        <f t="shared" si="38"/>
+        <v>40.088926589886583</v>
       </c>
       <c r="O61">
-        <f>(-5.0841*(10^-13)*H34^3)+(3.0052*(10^-8)*I34^2)+(1.6023*(10^-3)*I34)+6.0518+$K$57</f>
-        <v>39.991891430285698</v>
+        <f t="shared" si="39"/>
+        <v>40.06895242299796</v>
       </c>
       <c r="P61">
-        <f>(-5.0743*(10^-13)*H34^3)+(2.9806*(10^-8)*J34^2)+(1.6086*(10^-3)*J34)+5.9709+$K$57</f>
-        <v>40.006887460919543</v>
+        <f t="shared" si="40"/>
+        <v>40.038688300395584</v>
       </c>
       <c r="R61" s="1">
-        <f>M61-$L61</f>
-        <v>8.3269094331157589E-3</v>
+        <f t="shared" si="33"/>
+        <v>2.4175931138096018E-2</v>
       </c>
       <c r="S61" s="1">
-        <f>N61-$L61</f>
-        <v>-6.4541703478511181E-3</v>
+        <f t="shared" si="34"/>
+        <v>8.8926589886582974E-2</v>
       </c>
       <c r="T61" s="1">
-        <f>O61-$L61</f>
-        <v>-8.1085697143024049E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.8952422997959673E-2</v>
       </c>
       <c r="U61" s="1">
-        <f>P61-$L61</f>
-        <v>6.8874609195432868E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>3.8688300395584463E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="L62">
         <v>45</v>
       </c>
       <c r="M62">
-        <f>(-4.8928*(10^-13)*G35^3)+(2.9317*(10^-8)*G35^2)+(1.6089*(10^-3)*G35)+5.984+$K$57</f>
-        <v>45.017563247947244</v>
+        <f t="shared" si="37"/>
+        <v>45.024312448731337</v>
       </c>
       <c r="N62">
-        <f>(-4.9154*(10^-13)*H35^3)+(2.9183*(10^-8)*H35^2)+(1.6164*(10^-3)*H35)+5.9743+$K$57</f>
-        <v>45.016175100484276</v>
+        <f t="shared" si="38"/>
+        <v>45.096353481897253</v>
       </c>
       <c r="O62">
-        <f>(-5.0841*(10^-13)*H35^3)+(3.0052*(10^-8)*I35^2)+(1.6023*(10^-3)*I35)+6.0518+$K$57</f>
-        <v>45.035203268225587</v>
+        <f t="shared" si="39"/>
+        <v>45.075512342115218</v>
       </c>
       <c r="P62">
-        <f>(-5.0743*(10^-13)*H35^3)+(2.9806*(10^-8)*J35^2)+(1.6086*(10^-3)*J35)+5.9709+$K$57</f>
-        <v>45.049036741135858</v>
+        <f t="shared" si="40"/>
+        <v>45.042343366242221</v>
       </c>
       <c r="R62" s="1">
-        <f>M62-$L62</f>
-        <v>1.7563247947244065E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.4312448731336644E-2</v>
       </c>
       <c r="S62" s="1">
-        <f>N62-$L62</f>
-        <v>1.6175100484275617E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.6353481897253346E-2</v>
       </c>
       <c r="T62" s="1">
-        <f>O62-$L62</f>
-        <v>3.5203268225586726E-2</v>
+        <f t="shared" si="35"/>
+        <v>7.5512342115217734E-2</v>
       </c>
       <c r="U62" s="1">
-        <f>P62-$L62</f>
-        <v>4.9036741135857653E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>4.2343366242221236E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="L63">
         <v>50</v>
       </c>
       <c r="M63">
-        <f>(-4.8928*(10^-13)*G36^3)+(2.9317*(10^-8)*G36^2)+(1.6089*(10^-3)*G36)+5.984+$K$57</f>
-        <v>50.063588206583489</v>
+        <f t="shared" si="37"/>
+        <v>50.028679785661367</v>
       </c>
       <c r="N63">
-        <f>(-4.9154*(10^-13)*H36^3)+(2.9183*(10^-8)*H36^2)+(1.6164*(10^-3)*H36)+5.9743+$K$57</f>
-        <v>50.062358120549838</v>
+        <f t="shared" si="38"/>
+        <v>50.109120042655604</v>
       </c>
       <c r="O63">
-        <f>(-5.0841*(10^-13)*H36^3)+(3.0052*(10^-8)*I36^2)+(1.6023*(10^-3)*I36)+6.0518+$K$57</f>
-        <v>50.056097794746357</v>
+        <f t="shared" si="39"/>
+        <v>50.085699517262235</v>
       </c>
       <c r="P63">
-        <f>(-5.0743*(10^-13)*H36^3)+(2.9806*(10^-8)*J36^2)+(1.6086*(10^-3)*J36)+5.9709+$K$57</f>
-        <v>50.031869528497182</v>
+        <f t="shared" si="40"/>
+        <v>50.05048235866856</v>
       </c>
       <c r="R63" s="1">
-        <f>M63-$L63</f>
-        <v>6.3588206583489182E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.8679785661367418E-2</v>
       </c>
       <c r="S63" s="1">
-        <f>N63-$L63</f>
-        <v>6.2358120549838247E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.10912004265560427</v>
       </c>
       <c r="T63" s="1">
-        <f>O63-$L63</f>
-        <v>5.609779474635701E-2</v>
+        <f t="shared" si="35"/>
+        <v>8.5699517262234792E-2</v>
       </c>
       <c r="U63" s="1">
-        <f>P63-$L63</f>
-        <v>3.1869528497182387E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>5.0482358668560323E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="L64">
         <v>55</v>
       </c>
       <c r="M64">
-        <f>(-4.8928*(10^-13)*G37^3)+(2.9317*(10^-8)*G37^2)+(1.6089*(10^-3)*G37)+5.984+$K$57</f>
-        <v>55.012833428243994</v>
+        <f t="shared" si="37"/>
+        <v>54.996870666418715</v>
       </c>
       <c r="N64">
-        <f>(-4.9154*(10^-13)*H37^3)+(2.9183*(10^-8)*H37^2)+(1.6164*(10^-3)*H37)+5.9743+$K$57</f>
-        <v>55.026637700712151</v>
+        <f t="shared" si="38"/>
+        <v>55.087034074699481</v>
       </c>
       <c r="O64">
-        <f>(-5.0841*(10^-13)*H37^3)+(3.0052*(10^-8)*I37^2)+(1.6023*(10^-3)*I37)+6.0518+$K$57</f>
-        <v>55.011514415385037</v>
+        <f t="shared" si="39"/>
+        <v>55.058820858597294</v>
       </c>
       <c r="P64">
-        <f>(-5.0743*(10^-13)*H37^3)+(2.9806*(10^-8)*J37^2)+(1.6086*(10^-3)*J37)+5.9709+$K$57</f>
-        <v>55.062936703965605</v>
+        <f t="shared" si="40"/>
+        <v>55.022650978409096</v>
       </c>
       <c r="R64" s="1">
-        <f>M64-$L64</f>
-        <v>1.2833428243993694E-2</v>
+        <f t="shared" si="33"/>
+        <v>-3.1293335812847545E-3</v>
       </c>
       <c r="S64" s="1">
-        <f>N64-$L64</f>
-        <v>2.6637700712150547E-2</v>
+        <f t="shared" si="34"/>
+        <v>8.7034074699481323E-2</v>
       </c>
       <c r="T64" s="1">
-        <f>O64-$L64</f>
-        <v>1.1514415385036614E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.8820858597293579E-2</v>
       </c>
       <c r="U64" s="1">
-        <f>P64-$L64</f>
-        <v>6.2936703965604579E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>2.2650978409096467E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="12:21">
       <c r="L65">
         <v>58</v>
       </c>
       <c r="M65">
-        <f>(-4.8928*(10^-13)*G38^3)+(2.9317*(10^-8)*G38^2)+(1.6089*(10^-3)*G38)+5.984+$K$57</f>
-        <v>57.900548687831858</v>
+        <f t="shared" si="37"/>
+        <v>57.970343482468365</v>
       </c>
       <c r="N65">
-        <f>(-4.9154*(10^-13)*H38^3)+(2.9183*(10^-8)*H38^2)+(1.6164*(10^-3)*H38)+5.9743+$K$57</f>
-        <v>57.89316931846038</v>
+        <f t="shared" si="38"/>
+        <v>58.067106210668548</v>
       </c>
       <c r="O65">
-        <f>(-5.0841*(10^-13)*H38^3)+(3.0052*(10^-8)*I38^2)+(1.6023*(10^-3)*I38)+6.0518+$K$57</f>
-        <v>57.896589579514057</v>
+        <f t="shared" si="39"/>
+        <v>58.03474048153452</v>
       </c>
       <c r="P65">
-        <f>(-5.0743*(10^-13)*H38^3)+(2.9806*(10^-8)*J38^2)+(1.6086*(10^-3)*J38)+5.9709+$K$57</f>
-        <v>57.929767774178735</v>
+        <f t="shared" si="40"/>
+        <v>57.998609742702989</v>
       </c>
       <c r="R65" s="1">
-        <f>M65-$L65</f>
-        <v>-9.9451312168142181E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.9656517531634563E-2</v>
       </c>
       <c r="S65" s="1">
-        <f>N65-$L65</f>
-        <v>-0.10683068153961983</v>
+        <f t="shared" si="34"/>
+        <v>6.7106210668548272E-2</v>
       </c>
       <c r="T65" s="1">
-        <f>O65-$L65</f>
-        <v>-0.10341042048594318</v>
+        <f t="shared" si="35"/>
+        <v>3.4740481534520029E-2</v>
       </c>
       <c r="U65" s="1">
-        <f>P65-$L65</f>
-        <v>-7.0232225821264649E-2</v>
+        <f t="shared" si="36"/>
+        <v>-1.3902572970110327E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6121,9 +6886,9 @@
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color theme="5"/>
-        <color rgb="FF92D050"/>
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
+        <color theme="8" tint="0.59999389629810485"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6131,4 +6896,656 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14386E58-46AF-4355-B872-9D4375584865}">
+  <dimension ref="B3:W45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:23">
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4360</v>
+      </c>
+      <c r="E4">
+        <v>4347</v>
+      </c>
+      <c r="F4">
+        <v>4356</v>
+      </c>
+      <c r="G4">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23">
+      <c r="C5" s="11">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>6624</v>
+      </c>
+      <c r="E5">
+        <v>6609</v>
+      </c>
+      <c r="F5">
+        <v>6621</v>
+      </c>
+      <c r="G5">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23">
+      <c r="C6" s="11">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>8875</v>
+      </c>
+      <c r="E6">
+        <v>8859</v>
+      </c>
+      <c r="F6">
+        <v>8864</v>
+      </c>
+      <c r="G6">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="11">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>11110</v>
+      </c>
+      <c r="E7">
+        <v>11088</v>
+      </c>
+      <c r="F7">
+        <v>11100</v>
+      </c>
+      <c r="G7">
+        <v>11106</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="11">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11">
+        <v>15</v>
+      </c>
+      <c r="O7" s="11">
+        <v>20</v>
+      </c>
+      <c r="P7" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>30</v>
+      </c>
+      <c r="R7" s="11">
+        <v>35</v>
+      </c>
+      <c r="S7" s="11">
+        <v>40</v>
+      </c>
+      <c r="T7" s="11">
+        <v>45</v>
+      </c>
+      <c r="U7" s="11">
+        <v>50</v>
+      </c>
+      <c r="V7" s="11">
+        <v>55</v>
+      </c>
+      <c r="W7" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="11">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>13343</v>
+      </c>
+      <c r="E8">
+        <v>13317</v>
+      </c>
+      <c r="F8">
+        <v>13328</v>
+      </c>
+      <c r="G8">
+        <v>13339</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>2342</v>
+      </c>
+      <c r="N8">
+        <v>5244</v>
+      </c>
+      <c r="O8">
+        <v>7776</v>
+      </c>
+      <c r="P8">
+        <v>10222</v>
+      </c>
+      <c r="Q8">
+        <v>12598</v>
+      </c>
+      <c r="R8">
+        <v>14921</v>
+      </c>
+      <c r="S8">
+        <v>17286</v>
+      </c>
+      <c r="T8">
+        <v>19573</v>
+      </c>
+      <c r="U8">
+        <v>21874</v>
+      </c>
+      <c r="V8">
+        <v>24144</v>
+      </c>
+      <c r="W8">
+        <v>25481</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="11">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>15558</v>
+      </c>
+      <c r="E9">
+        <v>15534</v>
+      </c>
+      <c r="F9">
+        <v>15541</v>
+      </c>
+      <c r="G9">
+        <v>15553</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>2339</v>
+      </c>
+      <c r="N9">
+        <v>5230</v>
+      </c>
+      <c r="O9">
+        <v>7753</v>
+      </c>
+      <c r="P9">
+        <v>10195</v>
+      </c>
+      <c r="Q9">
+        <v>12579</v>
+      </c>
+      <c r="R9">
+        <v>14893</v>
+      </c>
+      <c r="S9">
+        <v>17248</v>
+      </c>
+      <c r="T9">
+        <v>19541</v>
+      </c>
+      <c r="U9">
+        <v>21843</v>
+      </c>
+      <c r="V9">
+        <v>24122</v>
+      </c>
+      <c r="W9">
+        <v>25451</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="11">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>17872</v>
+      </c>
+      <c r="E10">
+        <v>17841</v>
+      </c>
+      <c r="F10">
+        <v>17852</v>
+      </c>
+      <c r="G10">
+        <v>17867</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>2313</v>
+      </c>
+      <c r="N10">
+        <v>5208</v>
+      </c>
+      <c r="O10">
+        <v>7752</v>
+      </c>
+      <c r="P10">
+        <v>10202</v>
+      </c>
+      <c r="Q10">
+        <v>12569</v>
+      </c>
+      <c r="R10">
+        <v>14885</v>
+      </c>
+      <c r="S10">
+        <v>17245</v>
+      </c>
+      <c r="T10">
+        <v>19545</v>
+      </c>
+      <c r="U10">
+        <v>21838</v>
+      </c>
+      <c r="V10">
+        <v>24115</v>
+      </c>
+      <c r="W10">
+        <v>25451</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>20127</v>
+      </c>
+      <c r="E11">
+        <v>20095</v>
+      </c>
+      <c r="F11">
+        <v>20105</v>
+      </c>
+      <c r="G11">
+        <v>20118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>2352</v>
+      </c>
+      <c r="N11">
+        <v>5247</v>
+      </c>
+      <c r="O11">
+        <v>7755</v>
+      </c>
+      <c r="P11">
+        <v>10232</v>
+      </c>
+      <c r="Q11">
+        <v>12583</v>
+      </c>
+      <c r="R11">
+        <v>14914</v>
+      </c>
+      <c r="S11">
+        <v>17266</v>
+      </c>
+      <c r="T11">
+        <v>19566</v>
+      </c>
+      <c r="U11">
+        <v>21847</v>
+      </c>
+      <c r="V11">
+        <v>24151</v>
+      </c>
+      <c r="W11">
+        <v>25482</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="11">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>22384</v>
+      </c>
+      <c r="E12">
+        <v>22349</v>
+      </c>
+      <c r="F12">
+        <v>22357</v>
+      </c>
+      <c r="G12">
+        <v>22374</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="11">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>24624</v>
+      </c>
+      <c r="E13">
+        <v>24583</v>
+      </c>
+      <c r="F13">
+        <v>24594</v>
+      </c>
+      <c r="G13">
+        <v>24611</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="11">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>25964</v>
+      </c>
+      <c r="E14">
+        <v>25920</v>
+      </c>
+      <c r="F14">
+        <v>25936</v>
+      </c>
+      <c r="G14">
+        <v>25952</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20">
+        <v>4360</v>
+      </c>
+      <c r="C20" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21">
+        <v>6624</v>
+      </c>
+      <c r="C21" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22">
+        <v>8874</v>
+      </c>
+      <c r="C22" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23">
+        <v>11106</v>
+      </c>
+      <c r="C23" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24">
+        <v>13339</v>
+      </c>
+      <c r="C24" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25">
+        <v>15553</v>
+      </c>
+      <c r="C25" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26">
+        <v>17867</v>
+      </c>
+      <c r="C26" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27">
+        <v>20118</v>
+      </c>
+      <c r="C27" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28">
+        <v>22374</v>
+      </c>
+      <c r="C28" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29">
+        <v>24611</v>
+      </c>
+      <c r="C29" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30">
+        <v>25952</v>
+      </c>
+      <c r="C30" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="11">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12">
+        <f xml:space="preserve"> 0.000000008499*G4*G4+ 0.0018575*G4 + 5.2698</f>
+        <v>13.5300625904</v>
+      </c>
+      <c r="G35">
+        <f>E35-F35</f>
+        <v>-3.5300625904</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="11">
+        <v>15</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:F45" si="0" xml:space="preserve"> 0.000000008499*G5*G5+ 0.0018575*G5 + 5.2698</f>
+        <v>17.946793818624002</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G45" si="1">E36-F36</f>
+        <v>-2.9467938186240019</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="11">
+        <v>20</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>22.422533198124</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-2.4225331981240004</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="11">
+        <v>25</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>26.947489162763997</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-1.947489162763997</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="11">
+        <v>30</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>31.559210399578998</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-1.5592103995789977</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="11">
+        <v>35</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>36.215369980691001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-1.2153699806910012</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" s="11">
+        <v>40</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>41.170885626811</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-1.1708856268109997</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="11">
+        <v>45</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>46.078818620076007</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-1.0788186200760066</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" s="11">
+        <v>50</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>51.084069350123997</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-1.0840693501239969</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="11">
+        <v>55</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>56.132588027179011</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-1.1325880271790112</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="11">
+        <v>58</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>59.199770077696002</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-1.1997700776960016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>